--- a/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-RIS/V.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-RIS/V.2.0/report-checklist.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.94acb62a90ecf2b5970963e2b6ccecc38052be0abcb8d84f43ef841412b8d449.32cf0b5124^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>JWT payload: Person id presente nel JWT differente dal codice fiscale del paziente previsto sul CDA</t>
   </si>
   <si>
     <t>L’applicativo risponde con un codice di errore e il messaggio “Campo token JWT non valido” seguito dal motivo dell’errore. Il referto non viene prodotto</t>
@@ -3124,12 +3127,20 @@
         <v>31</v>
       </c>
       <c r="K15" s="50"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="39"/>
+      <c r="L15" t="s" s="37">
+        <v>31</v>
+      </c>
+      <c r="M15" t="s" s="37">
+        <v>47</v>
+      </c>
+      <c r="N15" t="s" s="47">
+        <v>55</v>
+      </c>
+      <c r="O15" t="s" s="37">
+        <v>31</v>
+      </c>
       <c r="P15" t="s" s="47">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="39"/>
       <c r="R15" s="37"/>
@@ -3149,16 +3160,16 @@
         <v>26</v>
       </c>
       <c r="D16" t="s" s="31">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s" s="32">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F16" s="51">
         <v>44987</v>
       </c>
       <c r="G16" t="s" s="49">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H16" s="52"/>
       <c r="I16" s="52"/>
@@ -3166,10 +3177,10 @@
       <c r="K16" s="38"/>
       <c r="L16" s="39"/>
       <c r="M16" s="39"/>
-      <c r="N16" s="38"/>
+      <c r="N16" s="50"/>
       <c r="O16" s="39"/>
       <c r="P16" t="s" s="53">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="39"/>
       <c r="R16" t="s" s="37">
@@ -3191,10 +3202,10 @@
         <v>26</v>
       </c>
       <c r="D17" t="s" s="31">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s" s="54">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
@@ -3204,7 +3215,7 @@
         <v>47</v>
       </c>
       <c r="K17" t="s" s="37">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L17" s="39"/>
       <c r="M17" s="39"/>
@@ -3229,10 +3240,10 @@
         <v>26</v>
       </c>
       <c r="D18" t="s" s="31">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s" s="32">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
@@ -3242,7 +3253,7 @@
         <v>47</v>
       </c>
       <c r="K18" t="s" s="37">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L18" s="39"/>
       <c r="M18" s="39"/>
@@ -3267,10 +3278,10 @@
         <v>26</v>
       </c>
       <c r="D19" t="s" s="31">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s" s="32">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" s="33">
         <v>44981</v>
@@ -3279,10 +3290,10 @@
         <v>1.611111111111111</v>
       </c>
       <c r="H19" t="s" s="35">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I19" t="s" s="36">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s" s="37">
         <v>31</v>
@@ -3295,13 +3306,13 @@
         <v>47</v>
       </c>
       <c r="N19" t="s" s="36">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O19" t="s" s="37">
         <v>31</v>
       </c>
       <c r="P19" t="s" s="37">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="39"/>
       <c r="R19" s="37"/>
@@ -3321,10 +3332,10 @@
         <v>26</v>
       </c>
       <c r="D20" t="s" s="31">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s" s="32">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" s="33">
         <v>44981</v>
@@ -3333,10 +3344,10 @@
         <v>1.6125</v>
       </c>
       <c r="H20" t="s" s="44">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="45">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="37">
         <v>31</v>
@@ -3349,13 +3360,13 @@
         <v>31</v>
       </c>
       <c r="N20" t="s" s="45">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O20" t="s" s="37">
         <v>47</v>
       </c>
       <c r="P20" t="s" s="37">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="39"/>
       <c r="R20" s="37"/>
@@ -3375,10 +3386,10 @@
         <v>26</v>
       </c>
       <c r="D21" t="s" s="31">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s" s="32">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
@@ -3388,7 +3399,7 @@
         <v>47</v>
       </c>
       <c r="K21" t="s" s="37">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="39"/>
       <c r="M21" s="39"/>
@@ -3413,10 +3424,10 @@
         <v>26</v>
       </c>
       <c r="D22" t="s" s="31">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s" s="32">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
@@ -3426,7 +3437,7 @@
         <v>47</v>
       </c>
       <c r="K22" t="s" s="37">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L22" s="39"/>
       <c r="M22" s="39"/>
@@ -3451,10 +3462,10 @@
         <v>26</v>
       </c>
       <c r="D23" t="s" s="31">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s" s="32">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23" s="33">
         <v>44981</v>
@@ -3463,10 +3474,10 @@
         <v>1.665277777777778</v>
       </c>
       <c r="H23" t="s" s="59">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s" s="60">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s" s="37">
         <v>31</v>
@@ -3479,13 +3490,13 @@
         <v>31</v>
       </c>
       <c r="N23" t="s" s="60">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O23" t="s" s="37">
         <v>47</v>
       </c>
       <c r="P23" t="s" s="37">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q23" s="39"/>
       <c r="R23" s="37"/>
@@ -3505,10 +3516,10 @@
         <v>26</v>
       </c>
       <c r="D24" t="s" s="31">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s" s="32">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
@@ -3518,7 +3529,7 @@
         <v>47</v>
       </c>
       <c r="K24" t="s" s="37">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L24" s="39"/>
       <c r="M24" s="39"/>
@@ -3543,10 +3554,10 @@
         <v>26</v>
       </c>
       <c r="D25" t="s" s="31">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s" s="32">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
@@ -3556,7 +3567,7 @@
         <v>47</v>
       </c>
       <c r="K25" t="s" s="37">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L25" s="39"/>
       <c r="M25" s="39"/>
@@ -3581,10 +3592,10 @@
         <v>26</v>
       </c>
       <c r="D26" t="s" s="31">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s" s="32">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F26" s="33">
         <v>44981</v>
@@ -3593,10 +3604,10 @@
         <v>1.613194444444444</v>
       </c>
       <c r="H26" t="s" s="59">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I26" t="s" s="60">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J26" t="s" s="37">
         <v>31</v>
@@ -3609,13 +3620,13 @@
         <v>31</v>
       </c>
       <c r="N26" t="s" s="60">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O26" t="s" s="37">
         <v>47</v>
       </c>
       <c r="P26" t="s" s="37">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="39"/>
       <c r="R26" s="37"/>
@@ -3635,10 +3646,10 @@
         <v>26</v>
       </c>
       <c r="D27" t="s" s="31">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s" s="32">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
@@ -3648,7 +3659,7 @@
         <v>47</v>
       </c>
       <c r="K27" t="s" s="37">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L27" s="39"/>
       <c r="M27" s="39"/>
@@ -3673,10 +3684,10 @@
         <v>26</v>
       </c>
       <c r="D28" t="s" s="31">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E28" t="s" s="32">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F28" s="33">
         <v>44981</v>
@@ -3685,10 +3696,10 @@
         <v>1.609027777777778</v>
       </c>
       <c r="H28" t="s" s="35">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I28" t="s" s="36">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J28" t="s" s="37">
         <v>31</v>
@@ -3701,13 +3712,13 @@
         <v>31</v>
       </c>
       <c r="N28" t="s" s="36">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O28" t="s" s="37">
         <v>47</v>
       </c>
       <c r="P28" t="s" s="37">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q28" s="39"/>
       <c r="R28" s="37"/>
@@ -3727,10 +3738,10 @@
         <v>26</v>
       </c>
       <c r="D29" t="s" s="31">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s" s="32">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F29" s="33">
         <v>44981</v>
@@ -3739,10 +3750,10 @@
         <v>1.634027777777778</v>
       </c>
       <c r="H29" t="s" s="42">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I29" t="s" s="43">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J29" t="s" s="37">
         <v>31</v>
@@ -3755,13 +3766,13 @@
         <v>31</v>
       </c>
       <c r="N29" t="s" s="43">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O29" t="s" s="37">
         <v>47</v>
       </c>
       <c r="P29" t="s" s="37">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q29" s="39"/>
       <c r="R29" s="37"/>
@@ -3781,10 +3792,10 @@
         <v>26</v>
       </c>
       <c r="D30" t="s" s="31">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s" s="32">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F30" s="33">
         <v>44984</v>
@@ -3793,10 +3804,10 @@
         <v>1.517361111111111</v>
       </c>
       <c r="H30" t="s" s="42">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I30" t="s" s="43">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J30" t="s" s="37">
         <v>31</v>
@@ -3809,13 +3820,13 @@
         <v>31</v>
       </c>
       <c r="N30" t="s" s="43">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O30" t="s" s="37">
         <v>47</v>
       </c>
       <c r="P30" t="s" s="37">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q30" s="39"/>
       <c r="R30" s="37"/>
@@ -3835,10 +3846,10 @@
         <v>26</v>
       </c>
       <c r="D31" t="s" s="31">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s" s="32">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F31" s="33">
         <v>44984</v>
@@ -3847,10 +3858,10 @@
         <v>1.680555555555556</v>
       </c>
       <c r="H31" t="s" s="44">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I31" t="s" s="43">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J31" t="s" s="37">
         <v>31</v>
@@ -3863,13 +3874,13 @@
         <v>31</v>
       </c>
       <c r="N31" t="s" s="43">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O31" t="s" s="37">
         <v>47</v>
       </c>
       <c r="P31" t="s" s="37">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q31" s="39"/>
       <c r="R31" s="37"/>
@@ -3889,10 +3900,10 @@
         <v>26</v>
       </c>
       <c r="D32" t="s" s="31">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E32" t="s" s="32">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F32" s="33">
         <v>44984</v>
@@ -3901,10 +3912,10 @@
         <v>1.694444444444444</v>
       </c>
       <c r="H32" t="s" s="62">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I32" t="s" s="43">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J32" t="s" s="37">
         <v>31</v>
@@ -3917,13 +3928,13 @@
         <v>31</v>
       </c>
       <c r="N32" t="s" s="43">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O32" t="s" s="37">
         <v>47</v>
       </c>
       <c r="P32" t="s" s="37">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q32" s="39"/>
       <c r="R32" s="37"/>
@@ -3943,10 +3954,10 @@
         <v>26</v>
       </c>
       <c r="D33" t="s" s="31">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s" s="32">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F33" s="33">
         <v>44984</v>
@@ -3955,10 +3966,10 @@
         <v>1.697916666666667</v>
       </c>
       <c r="H33" t="s" s="63">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I33" t="s" s="43">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J33" t="s" s="37">
         <v>31</v>
@@ -3971,13 +3982,13 @@
         <v>31</v>
       </c>
       <c r="N33" t="s" s="43">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O33" t="s" s="37">
         <v>47</v>
       </c>
       <c r="P33" t="s" s="37">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q33" s="39"/>
       <c r="R33" s="37"/>
@@ -3997,10 +4008,10 @@
         <v>26</v>
       </c>
       <c r="D34" t="s" s="31">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E34" t="s" s="32">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F34" s="33">
         <v>44981</v>
@@ -4009,10 +4020,10 @@
         <v>1.642361111111111</v>
       </c>
       <c r="H34" t="s" s="35">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I34" t="s" s="43">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J34" t="s" s="37">
         <v>31</v>
@@ -4025,13 +4036,13 @@
         <v>31</v>
       </c>
       <c r="N34" t="s" s="43">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O34" t="s" s="37">
         <v>47</v>
       </c>
       <c r="P34" t="s" s="37">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q34" s="39"/>
       <c r="R34" s="37"/>
@@ -4051,10 +4062,10 @@
         <v>26</v>
       </c>
       <c r="D35" t="s" s="65">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s" s="66">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F35" s="51">
         <v>44981</v>
@@ -4063,10 +4074,10 @@
         <v>1.673611111111111</v>
       </c>
       <c r="H35" t="s" s="68">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I35" t="s" s="69">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J35" t="s" s="70">
         <v>31</v>
@@ -4079,13 +4090,13 @@
         <v>31</v>
       </c>
       <c r="N35" t="s" s="69">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O35" t="s" s="70">
         <v>47</v>
       </c>
       <c r="P35" t="s" s="70">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q35" s="72"/>
       <c r="R35" s="70"/>
@@ -22736,40 +22747,40 @@
         <v>6</v>
       </c>
       <c r="C1" t="s" s="82">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s" s="83">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E1" s="84"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="85">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s" s="86">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s" s="87">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s" s="88">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E2" s="84"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s" s="89">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s" s="90">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s" s="91">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s" s="92">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E3" s="84"/>
     </row>
@@ -22778,58 +22789,58 @@
         <v>26</v>
       </c>
       <c r="B4" t="s" s="90">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s" s="91">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s" s="93">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E4" s="84"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s" s="89">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s" s="90">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s" s="91">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s" s="92">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E5" s="84"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" t="s" s="89">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s" s="90">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s" s="91">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s" s="93">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E6" s="84"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" t="s" s="94">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s" s="95">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s" s="96">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s" s="93">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E7" s="84"/>
     </row>

--- a/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-RIS/V.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-RIS/V.2.0/report-checklist.xlsx
@@ -35,9 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
   <si>
     <t>NOME FORNITORE:</t>
+  </si>
+  <si>
+    <t>GESAN SRL</t>
   </si>
   <si>
     <t>IDENTIFICATIVI SOFTWARE</t>
@@ -160,10 +163,10 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">0bb4303166a19921 </t>
+    <t>e119df24bb944ac7</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.7e3a302338821f54720cdcaba959a2d45529ae4de12f5dbf2ab807a409540e19.8f0cf2fcd5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.7e3a302338821f54720cdcaba959a2d45529ae4de12f5dbf2ab807a409540e19.a0b615ba0d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT4</t>
@@ -1212,7 +1215,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1245,6 +1248,9 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
@@ -1344,6 +1350,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
@@ -2660,9 +2669,11 @@
         <v>0</v>
       </c>
       <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
+      <c r="C2" t="s" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -2680,15 +2691,15 @@
       <c r="T2" s="5"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="13">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" t="s" s="15">
+      <c r="A3" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="15"/>
+      <c r="C3" t="s" s="16">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -2706,13 +2717,13 @@
       <c r="T3" s="5"/>
     </row>
     <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" t="s" s="15">
-        <v>3</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" t="s" s="16">
+        <v>4</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -2730,13 +2741,13 @@
       <c r="T4" s="5"/>
     </row>
     <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" t="s" s="15">
-        <v>4</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" t="s" s="16">
+        <v>5</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -2754,10 +2765,10 @@
       <c r="T5" s="5"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -2776,9 +2787,9 @@
       <c r="T6" s="5"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
@@ -2798,1334 +2809,1334 @@
       <c r="T7" s="5"/>
     </row>
     <row r="8" ht="14.05" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="23"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="24"/>
     </row>
     <row r="9" ht="36.9" customHeight="1">
-      <c r="A9" t="s" s="27">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s" s="28">
+      <c r="A9" t="s" s="28">
         <v>6</v>
       </c>
-      <c r="C9" t="s" s="28">
+      <c r="B9" t="s" s="29">
         <v>7</v>
       </c>
-      <c r="D9" t="s" s="28">
+      <c r="C9" t="s" s="29">
         <v>8</v>
       </c>
-      <c r="E9" t="s" s="28">
+      <c r="D9" t="s" s="29">
         <v>9</v>
       </c>
-      <c r="F9" t="s" s="28">
+      <c r="E9" t="s" s="29">
         <v>10</v>
       </c>
-      <c r="G9" t="s" s="28">
+      <c r="F9" t="s" s="29">
         <v>11</v>
       </c>
-      <c r="H9" t="s" s="29">
+      <c r="G9" t="s" s="29">
         <v>12</v>
       </c>
-      <c r="I9" t="s" s="29">
+      <c r="H9" t="s" s="30">
         <v>13</v>
       </c>
-      <c r="J9" t="s" s="28">
+      <c r="I9" t="s" s="30">
         <v>14</v>
       </c>
-      <c r="K9" t="s" s="28">
+      <c r="J9" t="s" s="29">
         <v>15</v>
       </c>
-      <c r="L9" t="s" s="28">
+      <c r="K9" t="s" s="29">
         <v>16</v>
       </c>
-      <c r="M9" t="s" s="28">
+      <c r="L9" t="s" s="29">
         <v>17</v>
       </c>
-      <c r="N9" t="s" s="28">
+      <c r="M9" t="s" s="29">
         <v>18</v>
       </c>
-      <c r="O9" t="s" s="28">
+      <c r="N9" t="s" s="29">
         <v>19</v>
       </c>
-      <c r="P9" t="s" s="28">
+      <c r="O9" t="s" s="29">
         <v>20</v>
       </c>
-      <c r="Q9" t="s" s="28">
+      <c r="P9" t="s" s="29">
         <v>21</v>
       </c>
-      <c r="R9" t="s" s="28">
+      <c r="Q9" t="s" s="29">
         <v>22</v>
       </c>
-      <c r="S9" t="s" s="28">
+      <c r="R9" t="s" s="29">
         <v>23</v>
       </c>
-      <c r="T9" t="s" s="28">
+      <c r="S9" t="s" s="29">
         <v>24</v>
       </c>
+      <c r="T9" t="s" s="29">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" ht="118.55" customHeight="1">
-      <c r="A10" s="30">
+      <c r="A10" s="31">
         <v>11</v>
       </c>
-      <c r="B10" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s" s="31">
+      <c r="B10" t="s" s="32">
         <v>26</v>
       </c>
-      <c r="D10" t="s" s="31">
+      <c r="C10" t="s" s="32">
         <v>27</v>
       </c>
-      <c r="E10" t="s" s="32">
+      <c r="D10" t="s" s="32">
         <v>28</v>
       </c>
-      <c r="F10" s="33">
+      <c r="E10" t="s" s="33">
+        <v>29</v>
+      </c>
+      <c r="F10" s="34">
         <v>44980</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="35">
         <v>1.631944444444444</v>
       </c>
-      <c r="H10" t="s" s="35">
-        <v>29</v>
-      </c>
-      <c r="I10" t="s" s="36">
+      <c r="H10" t="s" s="36">
         <v>30</v>
       </c>
-      <c r="J10" t="s" s="37">
+      <c r="I10" t="s" s="37">
         <v>31</v>
       </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="40"/>
-      <c r="T10" t="s" s="41">
+      <c r="J10" t="s" s="38">
         <v>32</v>
       </c>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="41"/>
+      <c r="T10" t="s" s="42">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" ht="118.55" customHeight="1">
-      <c r="A11" s="30">
+      <c r="A11" s="31">
         <v>12</v>
       </c>
-      <c r="B11" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s" s="31">
+      <c r="B11" t="s" s="32">
         <v>26</v>
       </c>
-      <c r="D11" t="s" s="31">
+      <c r="C11" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s" s="32">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s" s="33">
+        <v>35</v>
+      </c>
+      <c r="F11" s="34">
+        <v>44980</v>
+      </c>
+      <c r="G11" s="35">
+        <v>1.694444444444444</v>
+      </c>
+      <c r="H11" t="s" s="43">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s" s="44">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="41"/>
+      <c r="T11" t="s" s="42">
         <v>33</v>
       </c>
-      <c r="E11" t="s" s="32">
-        <v>34</v>
-      </c>
-      <c r="F11" s="33">
-        <v>44980</v>
-      </c>
-      <c r="G11" s="34">
+    </row>
+    <row r="12" ht="118.55" customHeight="1">
+      <c r="A12" s="31">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s" s="32">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s" s="33">
+        <v>39</v>
+      </c>
+      <c r="F12" s="34">
+        <v>45006</v>
+      </c>
+      <c r="G12" s="35">
+        <v>1.40625</v>
+      </c>
+      <c r="H12" t="s" s="45">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s" s="44">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="41"/>
+      <c r="T12" t="s" s="42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" ht="118.55" customHeight="1">
+      <c r="A13" s="31">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s" s="32">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s" s="33">
+        <v>43</v>
+      </c>
+      <c r="F13" s="34">
+        <v>44984</v>
+      </c>
+      <c r="G13" s="35">
+        <v>1.509722222222222</v>
+      </c>
+      <c r="H13" t="s" s="46">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s" s="47">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="41"/>
+      <c r="T13" t="s" s="42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" ht="92.55" customHeight="1">
+      <c r="A14" s="31">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s" s="32">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s" s="48">
+        <v>47</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" t="s" s="38">
+        <v>48</v>
+      </c>
+      <c r="K14" t="s" s="49">
+        <v>49</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="41"/>
+      <c r="T14" t="s" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" ht="105.55" customHeight="1">
+      <c r="A15" s="31">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s" s="32">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s" s="48">
+        <v>52</v>
+      </c>
+      <c r="F15" s="34">
+        <v>44987</v>
+      </c>
+      <c r="G15" t="s" s="50">
+        <v>53</v>
+      </c>
+      <c r="H15" t="s" s="51">
+        <v>54</v>
+      </c>
+      <c r="I15" t="s" s="51">
+        <v>55</v>
+      </c>
+      <c r="J15" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="K15" s="52"/>
+      <c r="L15" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s" s="38">
+        <v>48</v>
+      </c>
+      <c r="N15" t="s" s="49">
+        <v>56</v>
+      </c>
+      <c r="O15" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="P15" t="s" s="49">
+        <v>57</v>
+      </c>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="41"/>
+      <c r="T15" t="s" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" ht="43" customHeight="1">
+      <c r="A16" s="31">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s" s="32">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s" s="33">
+        <v>59</v>
+      </c>
+      <c r="F16" s="53">
+        <v>44987</v>
+      </c>
+      <c r="G16" t="s" s="51">
+        <v>60</v>
+      </c>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="40"/>
+      <c r="P16" t="s" s="55">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="40"/>
+      <c r="R16" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="S16" s="41"/>
+      <c r="T16" t="s" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" ht="118.55" customHeight="1">
+      <c r="A17" s="31">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s" s="32">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s" s="56">
+        <v>63</v>
+      </c>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58"/>
+      <c r="J17" t="s" s="38">
+        <v>48</v>
+      </c>
+      <c r="K17" t="s" s="38">
+        <v>64</v>
+      </c>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="41"/>
+      <c r="T17" t="s" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" ht="105.55" customHeight="1">
+      <c r="A18" s="31">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s" s="32">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s" s="33">
+        <v>66</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" t="s" s="38">
+        <v>48</v>
+      </c>
+      <c r="K18" t="s" s="38">
+        <v>67</v>
+      </c>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="41"/>
+      <c r="T18" t="s" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" ht="222.55" customHeight="1">
+      <c r="A19" s="31">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s" s="32">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s" s="33">
+        <v>69</v>
+      </c>
+      <c r="F19" s="34">
+        <v>44981</v>
+      </c>
+      <c r="G19" s="35">
+        <v>1.611111111111111</v>
+      </c>
+      <c r="H19" t="s" s="36">
+        <v>70</v>
+      </c>
+      <c r="I19" t="s" s="37">
+        <v>71</v>
+      </c>
+      <c r="J19" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="K19" s="39"/>
+      <c r="L19" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="M19" t="s" s="60">
+        <v>48</v>
+      </c>
+      <c r="N19" t="s" s="37">
+        <v>72</v>
+      </c>
+      <c r="O19" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="P19" t="s" s="38">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="41"/>
+      <c r="T19" t="s" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" ht="209.55" customHeight="1">
+      <c r="A20" s="31">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s" s="32">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s" s="33">
+        <v>75</v>
+      </c>
+      <c r="F20" s="34">
+        <v>44981</v>
+      </c>
+      <c r="G20" s="35">
+        <v>1.6125</v>
+      </c>
+      <c r="H20" t="s" s="46">
+        <v>76</v>
+      </c>
+      <c r="I20" t="s" s="47">
+        <v>77</v>
+      </c>
+      <c r="J20" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="K20" s="39"/>
+      <c r="L20" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="M20" t="s" s="60">
+        <v>32</v>
+      </c>
+      <c r="N20" t="s" s="47">
+        <v>78</v>
+      </c>
+      <c r="O20" t="s" s="38">
+        <v>48</v>
+      </c>
+      <c r="P20" t="s" s="38">
+        <v>79</v>
+      </c>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="41"/>
+      <c r="T20" t="s" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" ht="105.55" customHeight="1">
+      <c r="A21" s="31">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s" s="32">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s" s="33">
+        <v>81</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" t="s" s="38">
+        <v>48</v>
+      </c>
+      <c r="K21" t="s" s="38">
+        <v>64</v>
+      </c>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="41"/>
+      <c r="T21" t="s" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" ht="105.55" customHeight="1">
+      <c r="A22" s="31">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s" s="32">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s" s="33">
+        <v>83</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" t="s" s="38">
+        <v>48</v>
+      </c>
+      <c r="K22" t="s" s="38">
+        <v>64</v>
+      </c>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="41"/>
+      <c r="T22" t="s" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" ht="222.55" customHeight="1">
+      <c r="A23" s="31">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s" s="32">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s" s="33">
+        <v>85</v>
+      </c>
+      <c r="F23" s="34">
+        <v>44981</v>
+      </c>
+      <c r="G23" s="35">
+        <v>1.665277777777778</v>
+      </c>
+      <c r="H23" t="s" s="61">
+        <v>86</v>
+      </c>
+      <c r="I23" t="s" s="62">
+        <v>87</v>
+      </c>
+      <c r="J23" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="K23" s="39"/>
+      <c r="L23" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s" s="60">
+        <v>32</v>
+      </c>
+      <c r="N23" t="s" s="62">
+        <v>88</v>
+      </c>
+      <c r="O23" t="s" s="38">
+        <v>48</v>
+      </c>
+      <c r="P23" t="s" s="38">
+        <v>89</v>
+      </c>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="41"/>
+      <c r="T23" t="s" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" ht="105.55" customHeight="1">
+      <c r="A24" s="31">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s" s="32">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s" s="33">
+        <v>91</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" t="s" s="38">
+        <v>48</v>
+      </c>
+      <c r="K24" t="s" s="38">
+        <v>92</v>
+      </c>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="41"/>
+      <c r="T24" t="s" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" ht="92.55" customHeight="1">
+      <c r="A25" s="31">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s" s="32">
+        <v>93</v>
+      </c>
+      <c r="E25" t="s" s="33">
+        <v>94</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" t="s" s="38">
+        <v>48</v>
+      </c>
+      <c r="K25" t="s" s="38">
+        <v>64</v>
+      </c>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="41"/>
+      <c r="T25" t="s" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" ht="170.55" customHeight="1">
+      <c r="A26" s="31">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s" s="32">
+        <v>95</v>
+      </c>
+      <c r="E26" t="s" s="33">
+        <v>96</v>
+      </c>
+      <c r="F26" s="34">
+        <v>44981</v>
+      </c>
+      <c r="G26" s="35">
+        <v>1.613194444444444</v>
+      </c>
+      <c r="H26" t="s" s="61">
+        <v>97</v>
+      </c>
+      <c r="I26" t="s" s="62">
+        <v>98</v>
+      </c>
+      <c r="J26" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="K26" s="39"/>
+      <c r="L26" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s" s="60">
+        <v>32</v>
+      </c>
+      <c r="N26" t="s" s="62">
+        <v>99</v>
+      </c>
+      <c r="O26" t="s" s="38">
+        <v>48</v>
+      </c>
+      <c r="P26" t="s" s="38">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="41"/>
+      <c r="T26" t="s" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" ht="105.55" customHeight="1">
+      <c r="A27" s="31">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s" s="32">
+        <v>101</v>
+      </c>
+      <c r="E27" t="s" s="33">
+        <v>102</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" t="s" s="38">
+        <v>48</v>
+      </c>
+      <c r="K27" t="s" s="38">
+        <v>103</v>
+      </c>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="41"/>
+      <c r="T27" t="s" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" ht="261.55" customHeight="1">
+      <c r="A28" s="31">
+        <v>86</v>
+      </c>
+      <c r="B28" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s" s="32">
+        <v>104</v>
+      </c>
+      <c r="E28" t="s" s="33">
+        <v>105</v>
+      </c>
+      <c r="F28" s="34">
+        <v>44981</v>
+      </c>
+      <c r="G28" s="35">
+        <v>1.609027777777778</v>
+      </c>
+      <c r="H28" t="s" s="36">
+        <v>106</v>
+      </c>
+      <c r="I28" t="s" s="37">
+        <v>107</v>
+      </c>
+      <c r="J28" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="K28" s="39"/>
+      <c r="L28" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="M28" t="s" s="60">
+        <v>32</v>
+      </c>
+      <c r="N28" t="s" s="37">
+        <v>108</v>
+      </c>
+      <c r="O28" t="s" s="38">
+        <v>48</v>
+      </c>
+      <c r="P28" t="s" s="38">
+        <v>109</v>
+      </c>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="41"/>
+      <c r="T28" t="s" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" ht="300.55" customHeight="1">
+      <c r="A29" s="31">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s" s="32">
+        <v>110</v>
+      </c>
+      <c r="E29" t="s" s="33">
+        <v>111</v>
+      </c>
+      <c r="F29" s="34">
+        <v>44981</v>
+      </c>
+      <c r="G29" s="35">
+        <v>1.634027777777778</v>
+      </c>
+      <c r="H29" t="s" s="43">
+        <v>112</v>
+      </c>
+      <c r="I29" t="s" s="44">
+        <v>113</v>
+      </c>
+      <c r="J29" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="K29" s="39"/>
+      <c r="L29" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="M29" t="s" s="60">
+        <v>32</v>
+      </c>
+      <c r="N29" t="s" s="44">
+        <v>114</v>
+      </c>
+      <c r="O29" t="s" s="38">
+        <v>48</v>
+      </c>
+      <c r="P29" t="s" s="38">
+        <v>115</v>
+      </c>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="41"/>
+      <c r="T29" t="s" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" ht="196.55" customHeight="1">
+      <c r="A30" s="31">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s" s="32">
+        <v>116</v>
+      </c>
+      <c r="E30" t="s" s="33">
+        <v>117</v>
+      </c>
+      <c r="F30" s="34">
+        <v>44984</v>
+      </c>
+      <c r="G30" s="35">
+        <v>1.517361111111111</v>
+      </c>
+      <c r="H30" t="s" s="43">
+        <v>118</v>
+      </c>
+      <c r="I30" t="s" s="44">
+        <v>119</v>
+      </c>
+      <c r="J30" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="K30" s="39"/>
+      <c r="L30" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="M30" t="s" s="60">
+        <v>32</v>
+      </c>
+      <c r="N30" t="s" s="44">
+        <v>120</v>
+      </c>
+      <c r="O30" t="s" s="38">
+        <v>48</v>
+      </c>
+      <c r="P30" t="s" s="38">
+        <v>121</v>
+      </c>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="41"/>
+      <c r="T30" t="s" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" ht="196.55" customHeight="1">
+      <c r="A31" s="31">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s" s="32">
+        <v>122</v>
+      </c>
+      <c r="E31" t="s" s="33">
+        <v>123</v>
+      </c>
+      <c r="F31" s="34">
+        <v>44984</v>
+      </c>
+      <c r="G31" s="35">
+        <v>1.680555555555556</v>
+      </c>
+      <c r="H31" t="s" s="46">
+        <v>124</v>
+      </c>
+      <c r="I31" t="s" s="44">
+        <v>125</v>
+      </c>
+      <c r="J31" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="K31" s="39"/>
+      <c r="L31" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="M31" t="s" s="60">
+        <v>32</v>
+      </c>
+      <c r="N31" t="s" s="44">
+        <v>126</v>
+      </c>
+      <c r="O31" t="s" s="38">
+        <v>48</v>
+      </c>
+      <c r="P31" t="s" s="38">
+        <v>127</v>
+      </c>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="41"/>
+      <c r="T31" t="s" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" ht="196.55" customHeight="1">
+      <c r="A32" s="31">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s" s="32">
+        <v>128</v>
+      </c>
+      <c r="E32" t="s" s="33">
+        <v>129</v>
+      </c>
+      <c r="F32" s="34">
+        <v>44984</v>
+      </c>
+      <c r="G32" s="63">
         <v>1.694444444444444</v>
       </c>
-      <c r="H11" t="s" s="42">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s" s="43">
-        <v>36</v>
-      </c>
-      <c r="J11" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="40"/>
-      <c r="T11" t="s" s="41">
+      <c r="H32" t="s" s="64">
+        <v>130</v>
+      </c>
+      <c r="I32" t="s" s="44">
+        <v>131</v>
+      </c>
+      <c r="J32" t="s" s="38">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" ht="118.55" customHeight="1">
-      <c r="A12" s="30">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s" s="31">
+      <c r="K32" s="39"/>
+      <c r="L32" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="M32" t="s" s="60">
+        <v>32</v>
+      </c>
+      <c r="N32" t="s" s="44">
+        <v>132</v>
+      </c>
+      <c r="O32" t="s" s="38">
+        <v>48</v>
+      </c>
+      <c r="P32" t="s" s="38">
+        <v>133</v>
+      </c>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="41"/>
+      <c r="T32" t="s" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" ht="300.55" customHeight="1">
+      <c r="A33" s="31">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s" s="32">
         <v>26</v>
       </c>
-      <c r="D12" t="s" s="31">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s" s="32">
-        <v>38</v>
-      </c>
-      <c r="F12" s="33">
+      <c r="C33" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s" s="32">
+        <v>134</v>
+      </c>
+      <c r="E33" t="s" s="33">
+        <v>135</v>
+      </c>
+      <c r="F33" s="34">
+        <v>44984</v>
+      </c>
+      <c r="G33" s="63">
+        <v>1.697916666666667</v>
+      </c>
+      <c r="H33" t="s" s="65">
+        <v>136</v>
+      </c>
+      <c r="I33" t="s" s="44">
+        <v>137</v>
+      </c>
+      <c r="J33" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="K33" s="39"/>
+      <c r="L33" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="M33" t="s" s="60">
+        <v>32</v>
+      </c>
+      <c r="N33" t="s" s="44">
+        <v>138</v>
+      </c>
+      <c r="O33" t="s" s="38">
+        <v>48</v>
+      </c>
+      <c r="P33" t="s" s="38">
+        <v>139</v>
+      </c>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="41"/>
+      <c r="T33" t="s" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" ht="131.55" customHeight="1">
+      <c r="A34" s="31">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s" s="32">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s" s="32">
+        <v>140</v>
+      </c>
+      <c r="E34" t="s" s="33">
+        <v>141</v>
+      </c>
+      <c r="F34" s="34">
         <v>44981</v>
       </c>
-      <c r="G12" s="34">
-        <v>1.59375</v>
-      </c>
-      <c r="H12" t="s" s="42">
-        <v>39</v>
-      </c>
-      <c r="I12" t="s" s="43">
-        <v>40</v>
-      </c>
-      <c r="J12" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="40"/>
-      <c r="T12" t="s" s="41">
+      <c r="G34" s="35">
+        <v>1.642361111111111</v>
+      </c>
+      <c r="H34" t="s" s="36">
+        <v>142</v>
+      </c>
+      <c r="I34" t="s" s="44">
+        <v>143</v>
+      </c>
+      <c r="J34" t="s" s="38">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" ht="118.55" customHeight="1">
-      <c r="A13" s="30">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s" s="31">
+      <c r="K34" s="39"/>
+      <c r="L34" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="M34" t="s" s="60">
+        <v>32</v>
+      </c>
+      <c r="N34" t="s" s="44">
+        <v>144</v>
+      </c>
+      <c r="O34" t="s" s="38">
+        <v>48</v>
+      </c>
+      <c r="P34" t="s" s="38">
+        <v>145</v>
+      </c>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="41"/>
+      <c r="T34" t="s" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" ht="222.05" customHeight="1">
+      <c r="A35" s="66">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s" s="67">
         <v>26</v>
       </c>
-      <c r="D13" t="s" s="31">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s" s="32">
-        <v>42</v>
-      </c>
-      <c r="F13" s="33">
-        <v>44984</v>
-      </c>
-      <c r="G13" s="34">
-        <v>1.509722222222222</v>
-      </c>
-      <c r="H13" t="s" s="44">
-        <v>43</v>
-      </c>
-      <c r="I13" t="s" s="45">
-        <v>44</v>
-      </c>
-      <c r="J13" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="40"/>
-      <c r="T13" t="s" s="41">
+      <c r="C35" t="s" s="67">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s" s="67">
+        <v>146</v>
+      </c>
+      <c r="E35" t="s" s="68">
+        <v>147</v>
+      </c>
+      <c r="F35" s="53">
+        <v>44981</v>
+      </c>
+      <c r="G35" s="69">
+        <v>1.673611111111111</v>
+      </c>
+      <c r="H35" t="s" s="70">
+        <v>148</v>
+      </c>
+      <c r="I35" t="s" s="71">
+        <v>149</v>
+      </c>
+      <c r="J35" t="s" s="72">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" ht="92.55" customHeight="1">
-      <c r="A14" s="30">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s" s="31">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s" s="46">
-        <v>46</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" t="s" s="37">
-        <v>47</v>
-      </c>
-      <c r="K14" t="s" s="47">
+      <c r="K35" s="59"/>
+      <c r="L35" t="s" s="72">
+        <v>32</v>
+      </c>
+      <c r="M35" t="s" s="73">
+        <v>32</v>
+      </c>
+      <c r="N35" t="s" s="71">
+        <v>150</v>
+      </c>
+      <c r="O35" t="s" s="72">
         <v>48</v>
       </c>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="40"/>
-      <c r="T14" t="s" s="41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" ht="105.55" customHeight="1">
-      <c r="A15" s="30">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s" s="31">
+      <c r="P35" t="s" s="72">
+        <v>151</v>
+      </c>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="75"/>
+      <c r="T35" t="s" s="76">
         <v>50</v>
       </c>
-      <c r="E15" t="s" s="46">
-        <v>51</v>
-      </c>
-      <c r="F15" s="33">
-        <v>44987</v>
-      </c>
-      <c r="G15" t="s" s="48">
-        <v>52</v>
-      </c>
-      <c r="H15" t="s" s="49">
-        <v>53</v>
-      </c>
-      <c r="I15" t="s" s="49">
-        <v>54</v>
-      </c>
-      <c r="J15" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="K15" s="50"/>
-      <c r="L15" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="M15" t="s" s="37">
-        <v>47</v>
-      </c>
-      <c r="N15" t="s" s="47">
-        <v>55</v>
-      </c>
-      <c r="O15" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="P15" t="s" s="47">
-        <v>56</v>
-      </c>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="40"/>
-      <c r="T15" t="s" s="41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" ht="43" customHeight="1">
-      <c r="A16" s="30">
-        <v>47</v>
-      </c>
-      <c r="B16" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s" s="31">
-        <v>57</v>
-      </c>
-      <c r="E16" t="s" s="32">
-        <v>58</v>
-      </c>
-      <c r="F16" s="51">
-        <v>44987</v>
-      </c>
-      <c r="G16" t="s" s="49">
-        <v>59</v>
-      </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="39"/>
-      <c r="P16" t="s" s="53">
-        <v>60</v>
-      </c>
-      <c r="Q16" s="39"/>
-      <c r="R16" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="S16" s="40"/>
-      <c r="T16" t="s" s="41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" ht="118.55" customHeight="1">
-      <c r="A17" s="30">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s" s="31">
-        <v>61</v>
-      </c>
-      <c r="E17" t="s" s="54">
-        <v>62</v>
-      </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
-      <c r="J17" t="s" s="37">
-        <v>47</v>
-      </c>
-      <c r="K17" t="s" s="37">
-        <v>63</v>
-      </c>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="40"/>
-      <c r="T17" t="s" s="41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" ht="105.55" customHeight="1">
-      <c r="A18" s="30">
-        <v>76</v>
-      </c>
-      <c r="B18" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s" s="31">
-        <v>64</v>
-      </c>
-      <c r="E18" t="s" s="32">
-        <v>65</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" t="s" s="37">
-        <v>47</v>
-      </c>
-      <c r="K18" t="s" s="37">
-        <v>66</v>
-      </c>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="40"/>
-      <c r="T18" t="s" s="41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" ht="222.55" customHeight="1">
-      <c r="A19" s="30">
-        <v>77</v>
-      </c>
-      <c r="B19" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s" s="31">
-        <v>67</v>
-      </c>
-      <c r="E19" t="s" s="32">
-        <v>68</v>
-      </c>
-      <c r="F19" s="33">
-        <v>44981</v>
-      </c>
-      <c r="G19" s="34">
-        <v>1.611111111111111</v>
-      </c>
-      <c r="H19" t="s" s="35">
-        <v>69</v>
-      </c>
-      <c r="I19" t="s" s="36">
-        <v>70</v>
-      </c>
-      <c r="J19" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="K19" s="38"/>
-      <c r="L19" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="M19" t="s" s="58">
-        <v>47</v>
-      </c>
-      <c r="N19" t="s" s="36">
-        <v>71</v>
-      </c>
-      <c r="O19" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="P19" t="s" s="37">
-        <v>72</v>
-      </c>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="40"/>
-      <c r="T19" t="s" s="41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" ht="209.55" customHeight="1">
-      <c r="A20" s="30">
-        <v>78</v>
-      </c>
-      <c r="B20" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s" s="31">
-        <v>73</v>
-      </c>
-      <c r="E20" t="s" s="32">
-        <v>74</v>
-      </c>
-      <c r="F20" s="33">
-        <v>44981</v>
-      </c>
-      <c r="G20" s="34">
-        <v>1.6125</v>
-      </c>
-      <c r="H20" t="s" s="44">
-        <v>75</v>
-      </c>
-      <c r="I20" t="s" s="45">
-        <v>76</v>
-      </c>
-      <c r="J20" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="K20" s="38"/>
-      <c r="L20" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="M20" t="s" s="58">
-        <v>31</v>
-      </c>
-      <c r="N20" t="s" s="45">
-        <v>77</v>
-      </c>
-      <c r="O20" t="s" s="37">
-        <v>47</v>
-      </c>
-      <c r="P20" t="s" s="37">
-        <v>78</v>
-      </c>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="40"/>
-      <c r="T20" t="s" s="41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" ht="105.55" customHeight="1">
-      <c r="A21" s="30">
-        <v>79</v>
-      </c>
-      <c r="B21" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s" s="31">
-        <v>79</v>
-      </c>
-      <c r="E21" t="s" s="32">
-        <v>80</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" t="s" s="37">
-        <v>47</v>
-      </c>
-      <c r="K21" t="s" s="37">
-        <v>63</v>
-      </c>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="40"/>
-      <c r="T21" t="s" s="41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" ht="105.55" customHeight="1">
-      <c r="A22" s="30">
-        <v>80</v>
-      </c>
-      <c r="B22" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s" s="31">
-        <v>81</v>
-      </c>
-      <c r="E22" t="s" s="32">
-        <v>82</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" t="s" s="37">
-        <v>47</v>
-      </c>
-      <c r="K22" t="s" s="37">
-        <v>63</v>
-      </c>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="40"/>
-      <c r="T22" t="s" s="41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" ht="222.55" customHeight="1">
-      <c r="A23" s="30">
-        <v>81</v>
-      </c>
-      <c r="B23" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s" s="31">
-        <v>83</v>
-      </c>
-      <c r="E23" t="s" s="32">
-        <v>84</v>
-      </c>
-      <c r="F23" s="33">
-        <v>44981</v>
-      </c>
-      <c r="G23" s="34">
-        <v>1.665277777777778</v>
-      </c>
-      <c r="H23" t="s" s="59">
-        <v>85</v>
-      </c>
-      <c r="I23" t="s" s="60">
-        <v>86</v>
-      </c>
-      <c r="J23" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="K23" s="38"/>
-      <c r="L23" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="M23" t="s" s="58">
-        <v>31</v>
-      </c>
-      <c r="N23" t="s" s="60">
-        <v>87</v>
-      </c>
-      <c r="O23" t="s" s="37">
-        <v>47</v>
-      </c>
-      <c r="P23" t="s" s="37">
-        <v>88</v>
-      </c>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="40"/>
-      <c r="T23" t="s" s="41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" ht="105.55" customHeight="1">
-      <c r="A24" s="30">
-        <v>82</v>
-      </c>
-      <c r="B24" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s" s="31">
-        <v>89</v>
-      </c>
-      <c r="E24" t="s" s="32">
-        <v>90</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" t="s" s="37">
-        <v>47</v>
-      </c>
-      <c r="K24" t="s" s="37">
-        <v>91</v>
-      </c>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="40"/>
-      <c r="T24" t="s" s="41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" ht="92.55" customHeight="1">
-      <c r="A25" s="30">
-        <v>83</v>
-      </c>
-      <c r="B25" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s" s="31">
-        <v>92</v>
-      </c>
-      <c r="E25" t="s" s="32">
-        <v>93</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" t="s" s="37">
-        <v>47</v>
-      </c>
-      <c r="K25" t="s" s="37">
-        <v>63</v>
-      </c>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="40"/>
-      <c r="T25" t="s" s="41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" ht="170.55" customHeight="1">
-      <c r="A26" s="30">
-        <v>84</v>
-      </c>
-      <c r="B26" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s" s="31">
-        <v>94</v>
-      </c>
-      <c r="E26" t="s" s="32">
-        <v>95</v>
-      </c>
-      <c r="F26" s="33">
-        <v>44981</v>
-      </c>
-      <c r="G26" s="34">
-        <v>1.613194444444444</v>
-      </c>
-      <c r="H26" t="s" s="59">
-        <v>96</v>
-      </c>
-      <c r="I26" t="s" s="60">
-        <v>97</v>
-      </c>
-      <c r="J26" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="K26" s="38"/>
-      <c r="L26" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="M26" t="s" s="58">
-        <v>31</v>
-      </c>
-      <c r="N26" t="s" s="60">
-        <v>98</v>
-      </c>
-      <c r="O26" t="s" s="37">
-        <v>47</v>
-      </c>
-      <c r="P26" t="s" s="37">
-        <v>99</v>
-      </c>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="40"/>
-      <c r="T26" t="s" s="41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" ht="105.55" customHeight="1">
-      <c r="A27" s="30">
-        <v>85</v>
-      </c>
-      <c r="B27" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s" s="31">
-        <v>100</v>
-      </c>
-      <c r="E27" t="s" s="32">
-        <v>101</v>
-      </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" t="s" s="37">
-        <v>47</v>
-      </c>
-      <c r="K27" t="s" s="37">
-        <v>102</v>
-      </c>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="40"/>
-      <c r="T27" t="s" s="41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" ht="261.55" customHeight="1">
-      <c r="A28" s="30">
-        <v>86</v>
-      </c>
-      <c r="B28" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s" s="31">
-        <v>103</v>
-      </c>
-      <c r="E28" t="s" s="32">
-        <v>104</v>
-      </c>
-      <c r="F28" s="33">
-        <v>44981</v>
-      </c>
-      <c r="G28" s="34">
-        <v>1.609027777777778</v>
-      </c>
-      <c r="H28" t="s" s="35">
-        <v>105</v>
-      </c>
-      <c r="I28" t="s" s="36">
-        <v>106</v>
-      </c>
-      <c r="J28" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="K28" s="38"/>
-      <c r="L28" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="M28" t="s" s="58">
-        <v>31</v>
-      </c>
-      <c r="N28" t="s" s="36">
-        <v>107</v>
-      </c>
-      <c r="O28" t="s" s="37">
-        <v>47</v>
-      </c>
-      <c r="P28" t="s" s="37">
-        <v>108</v>
-      </c>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="40"/>
-      <c r="T28" t="s" s="41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" ht="300.55" customHeight="1">
-      <c r="A29" s="30">
-        <v>87</v>
-      </c>
-      <c r="B29" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s" s="31">
-        <v>109</v>
-      </c>
-      <c r="E29" t="s" s="32">
-        <v>110</v>
-      </c>
-      <c r="F29" s="33">
-        <v>44981</v>
-      </c>
-      <c r="G29" s="34">
-        <v>1.634027777777778</v>
-      </c>
-      <c r="H29" t="s" s="42">
-        <v>111</v>
-      </c>
-      <c r="I29" t="s" s="43">
-        <v>112</v>
-      </c>
-      <c r="J29" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="K29" s="38"/>
-      <c r="L29" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="M29" t="s" s="58">
-        <v>31</v>
-      </c>
-      <c r="N29" t="s" s="43">
-        <v>113</v>
-      </c>
-      <c r="O29" t="s" s="37">
-        <v>47</v>
-      </c>
-      <c r="P29" t="s" s="37">
-        <v>114</v>
-      </c>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="40"/>
-      <c r="T29" t="s" s="41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" ht="196.55" customHeight="1">
-      <c r="A30" s="30">
-        <v>88</v>
-      </c>
-      <c r="B30" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s" s="31">
-        <v>115</v>
-      </c>
-      <c r="E30" t="s" s="32">
-        <v>116</v>
-      </c>
-      <c r="F30" s="33">
-        <v>44984</v>
-      </c>
-      <c r="G30" s="34">
-        <v>1.517361111111111</v>
-      </c>
-      <c r="H30" t="s" s="42">
-        <v>117</v>
-      </c>
-      <c r="I30" t="s" s="43">
-        <v>118</v>
-      </c>
-      <c r="J30" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="K30" s="38"/>
-      <c r="L30" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="M30" t="s" s="58">
-        <v>31</v>
-      </c>
-      <c r="N30" t="s" s="43">
-        <v>119</v>
-      </c>
-      <c r="O30" t="s" s="37">
-        <v>47</v>
-      </c>
-      <c r="P30" t="s" s="37">
-        <v>120</v>
-      </c>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="40"/>
-      <c r="T30" t="s" s="41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" ht="196.55" customHeight="1">
-      <c r="A31" s="30">
-        <v>89</v>
-      </c>
-      <c r="B31" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s" s="31">
-        <v>121</v>
-      </c>
-      <c r="E31" t="s" s="32">
-        <v>122</v>
-      </c>
-      <c r="F31" s="33">
-        <v>44984</v>
-      </c>
-      <c r="G31" s="34">
-        <v>1.680555555555556</v>
-      </c>
-      <c r="H31" t="s" s="44">
-        <v>123</v>
-      </c>
-      <c r="I31" t="s" s="43">
-        <v>124</v>
-      </c>
-      <c r="J31" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="K31" s="38"/>
-      <c r="L31" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="M31" t="s" s="58">
-        <v>31</v>
-      </c>
-      <c r="N31" t="s" s="43">
-        <v>125</v>
-      </c>
-      <c r="O31" t="s" s="37">
-        <v>47</v>
-      </c>
-      <c r="P31" t="s" s="37">
-        <v>126</v>
-      </c>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="40"/>
-      <c r="T31" t="s" s="41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" ht="196.55" customHeight="1">
-      <c r="A32" s="30">
-        <v>90</v>
-      </c>
-      <c r="B32" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C32" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="D32" t="s" s="31">
-        <v>127</v>
-      </c>
-      <c r="E32" t="s" s="32">
-        <v>128</v>
-      </c>
-      <c r="F32" s="33">
-        <v>44984</v>
-      </c>
-      <c r="G32" s="61">
-        <v>1.694444444444444</v>
-      </c>
-      <c r="H32" t="s" s="62">
-        <v>129</v>
-      </c>
-      <c r="I32" t="s" s="43">
-        <v>130</v>
-      </c>
-      <c r="J32" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="K32" s="38"/>
-      <c r="L32" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="M32" t="s" s="58">
-        <v>31</v>
-      </c>
-      <c r="N32" t="s" s="43">
-        <v>131</v>
-      </c>
-      <c r="O32" t="s" s="37">
-        <v>47</v>
-      </c>
-      <c r="P32" t="s" s="37">
-        <v>132</v>
-      </c>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="40"/>
-      <c r="T32" t="s" s="41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" ht="300.55" customHeight="1">
-      <c r="A33" s="30">
-        <v>91</v>
-      </c>
-      <c r="B33" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C33" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="D33" t="s" s="31">
-        <v>133</v>
-      </c>
-      <c r="E33" t="s" s="32">
-        <v>134</v>
-      </c>
-      <c r="F33" s="33">
-        <v>44984</v>
-      </c>
-      <c r="G33" s="61">
-        <v>1.697916666666667</v>
-      </c>
-      <c r="H33" t="s" s="63">
-        <v>135</v>
-      </c>
-      <c r="I33" t="s" s="43">
-        <v>136</v>
-      </c>
-      <c r="J33" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="K33" s="38"/>
-      <c r="L33" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="M33" t="s" s="58">
-        <v>31</v>
-      </c>
-      <c r="N33" t="s" s="43">
-        <v>137</v>
-      </c>
-      <c r="O33" t="s" s="37">
-        <v>47</v>
-      </c>
-      <c r="P33" t="s" s="37">
-        <v>138</v>
-      </c>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="40"/>
-      <c r="T33" t="s" s="41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" ht="131.55" customHeight="1">
-      <c r="A34" s="30">
-        <v>92</v>
-      </c>
-      <c r="B34" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="D34" t="s" s="31">
-        <v>139</v>
-      </c>
-      <c r="E34" t="s" s="32">
-        <v>140</v>
-      </c>
-      <c r="F34" s="33">
-        <v>44981</v>
-      </c>
-      <c r="G34" s="34">
-        <v>1.642361111111111</v>
-      </c>
-      <c r="H34" t="s" s="35">
-        <v>141</v>
-      </c>
-      <c r="I34" t="s" s="43">
-        <v>142</v>
-      </c>
-      <c r="J34" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="K34" s="38"/>
-      <c r="L34" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="M34" t="s" s="58">
-        <v>31</v>
-      </c>
-      <c r="N34" t="s" s="43">
-        <v>143</v>
-      </c>
-      <c r="O34" t="s" s="37">
-        <v>47</v>
-      </c>
-      <c r="P34" t="s" s="37">
-        <v>144</v>
-      </c>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="40"/>
-      <c r="T34" t="s" s="41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" ht="222.05" customHeight="1">
-      <c r="A35" s="64">
-        <v>93</v>
-      </c>
-      <c r="B35" t="s" s="65">
-        <v>25</v>
-      </c>
-      <c r="C35" t="s" s="65">
-        <v>26</v>
-      </c>
-      <c r="D35" t="s" s="65">
-        <v>145</v>
-      </c>
-      <c r="E35" t="s" s="66">
-        <v>146</v>
-      </c>
-      <c r="F35" s="51">
-        <v>44981</v>
-      </c>
-      <c r="G35" s="67">
-        <v>1.673611111111111</v>
-      </c>
-      <c r="H35" t="s" s="68">
-        <v>147</v>
-      </c>
-      <c r="I35" t="s" s="69">
-        <v>148</v>
-      </c>
-      <c r="J35" t="s" s="70">
-        <v>31</v>
-      </c>
-      <c r="K35" s="57"/>
-      <c r="L35" t="s" s="70">
-        <v>31</v>
-      </c>
-      <c r="M35" t="s" s="71">
-        <v>31</v>
-      </c>
-      <c r="N35" t="s" s="69">
-        <v>149</v>
-      </c>
-      <c r="O35" t="s" s="70">
-        <v>47</v>
-      </c>
-      <c r="P35" t="s" s="70">
-        <v>150</v>
-      </c>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="70"/>
-      <c r="S35" s="73"/>
-      <c r="T35" t="s" s="74">
-        <v>49</v>
-      </c>
     </row>
     <row r="36" ht="13.55" customHeight="1">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="76"/>
-      <c r="R36" s="78"/>
-      <c r="S36" s="79"/>
-      <c r="T36" s="76"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="78"/>
+      <c r="Q36" s="78"/>
+      <c r="R36" s="80"/>
+      <c r="S36" s="81"/>
+      <c r="T36" s="78"/>
     </row>
     <row r="37" ht="13.55" customHeight="1">
       <c r="A37" s="3"/>
@@ -22731,124 +22742,124 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="80" customWidth="1"/>
-    <col min="2" max="2" width="23.8516" style="80" customWidth="1"/>
-    <col min="3" max="3" width="18.8516" style="80" customWidth="1"/>
-    <col min="4" max="4" width="58.5" style="80" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="80" customWidth="1"/>
-    <col min="6" max="16384" width="14.5" style="80" customWidth="1"/>
+    <col min="1" max="1" width="16" style="82" customWidth="1"/>
+    <col min="2" max="2" width="23.8516" style="82" customWidth="1"/>
+    <col min="3" max="3" width="18.8516" style="82" customWidth="1"/>
+    <col min="4" max="4" width="58.5" style="82" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="82" customWidth="1"/>
+    <col min="6" max="16384" width="14.5" style="82" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="81">
+      <c r="A1" t="s" s="83">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s" s="84">
         <v>7</v>
       </c>
-      <c r="B1" t="s" s="82">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s" s="82">
-        <v>151</v>
-      </c>
-      <c r="D1" t="s" s="83">
+      <c r="C1" t="s" s="84">
         <v>152</v>
       </c>
-      <c r="E1" s="84"/>
+      <c r="D1" t="s" s="85">
+        <v>153</v>
+      </c>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="85">
-        <v>153</v>
-      </c>
-      <c r="B2" t="s" s="86">
+      <c r="A2" t="s" s="87">
         <v>154</v>
       </c>
-      <c r="C2" t="s" s="87">
+      <c r="B2" t="s" s="88">
         <v>155</v>
       </c>
-      <c r="D2" t="s" s="88">
+      <c r="C2" t="s" s="89">
         <v>156</v>
       </c>
-      <c r="E2" s="84"/>
+      <c r="D2" t="s" s="90">
+        <v>157</v>
+      </c>
+      <c r="E2" s="86"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="89">
-        <v>157</v>
-      </c>
-      <c r="B3" t="s" s="90">
-        <v>154</v>
-      </c>
-      <c r="C3" t="s" s="91">
+      <c r="A3" t="s" s="91">
         <v>158</v>
       </c>
-      <c r="D3" t="s" s="92">
+      <c r="B3" t="s" s="92">
+        <v>155</v>
+      </c>
+      <c r="C3" t="s" s="93">
         <v>159</v>
       </c>
-      <c r="E3" s="84"/>
+      <c r="D3" t="s" s="94">
+        <v>160</v>
+      </c>
+      <c r="E3" s="86"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="89">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s" s="90">
-        <v>154</v>
-      </c>
-      <c r="C4" t="s" s="91">
-        <v>160</v>
-      </c>
-      <c r="D4" t="s" s="93">
+      <c r="A4" t="s" s="91">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s" s="92">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s" s="93">
         <v>161</v>
       </c>
-      <c r="E4" s="84"/>
+      <c r="D4" t="s" s="95">
+        <v>162</v>
+      </c>
+      <c r="E4" s="86"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" t="s" s="89">
-        <v>162</v>
-      </c>
-      <c r="B5" t="s" s="90">
-        <v>154</v>
-      </c>
-      <c r="C5" t="s" s="91">
+      <c r="A5" t="s" s="91">
         <v>163</v>
       </c>
-      <c r="D5" t="s" s="92">
+      <c r="B5" t="s" s="92">
+        <v>155</v>
+      </c>
+      <c r="C5" t="s" s="93">
         <v>164</v>
       </c>
-      <c r="E5" s="84"/>
+      <c r="D5" t="s" s="94">
+        <v>165</v>
+      </c>
+      <c r="E5" s="86"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" t="s" s="89">
-        <v>165</v>
-      </c>
-      <c r="B6" t="s" s="90">
-        <v>154</v>
-      </c>
-      <c r="C6" t="s" s="91">
+      <c r="A6" t="s" s="91">
         <v>166</v>
       </c>
-      <c r="D6" t="s" s="93">
+      <c r="B6" t="s" s="92">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s" s="93">
         <v>167</v>
       </c>
-      <c r="E6" s="84"/>
+      <c r="D6" t="s" s="95">
+        <v>168</v>
+      </c>
+      <c r="E6" s="86"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" t="s" s="94">
-        <v>168</v>
-      </c>
-      <c r="B7" t="s" s="95">
-        <v>154</v>
-      </c>
-      <c r="C7" t="s" s="96">
+      <c r="A7" t="s" s="96">
         <v>169</v>
       </c>
-      <c r="D7" t="s" s="93">
+      <c r="B7" t="s" s="97">
+        <v>155</v>
+      </c>
+      <c r="C7" t="s" s="98">
         <v>170</v>
       </c>
-      <c r="E7" s="84"/>
+      <c r="D7" t="s" s="95">
+        <v>171</v>
+      </c>
+      <c r="E7" s="86"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="97"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="19"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">

--- a/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-RIS/V.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-RIS/V.2.0/report-checklist.xlsx
@@ -52,7 +52,7 @@
     <t>subject_application_vendor: GESAN SRL</t>
   </si>
   <si>
-    <t>subject_application_version: v.2.0</t>
+    <t>subject_application_version: V.2.0</t>
   </si>
   <si>
     <t>ID</t>
@@ -129,10 +129,10 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">225f7ba7c1f23743 </t>
+    <t>af3ef739c0d91a8e</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.94acb62a90ecf2b5970963e2b6ccecc38052be0abcb8d84f43ef841412b8d449.3e35d8291f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.94acb62a90ecf2b5970963e2b6ccecc38052be0abcb8d84f43ef841412b8d449.acaa092191^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -149,10 +149,10 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">3a6a8847209d21db </t>
+    <t>85574c797e25b6b2</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.e1419bb55c3a28ea90fec660fd9c487856dba78a3be8356b7ac8788f8cefc5e6.8533ccd671^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.e1419bb55c3a28ea90fec660fd9c487856dba78a3be8356b7ac8788f8cefc5e6.f0714a35aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT3</t>
@@ -163,10 +163,10 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>e119df24bb944ac7</t>
+    <t>f927f9294ef77277</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.7e3a302338821f54720cdcaba959a2d45529ae4de12f5dbf2ab807a409540e19.a0b615ba0d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.7e3a302338821f54720cdcaba959a2d45529ae4de12f5dbf2ab807a409540e19.52cba350b4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT4</t>
@@ -177,10 +177,10 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">3812f577550378e4 </t>
+    <t xml:space="preserve">2964dcfd215876d2 </t>
   </si>
   <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.674a5c9463de6e1664dc42fbb6927dc235b0571732d102dbc042ffd2b2257e42.349db71e07^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.674a5c9463de6e1664dc42fbb6927dc235b0571732d102dbc042ffd2b2257e42.193395f6b5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
@@ -766,7 +766,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -944,6 +944,21 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="medium">
@@ -1009,7 +1024,7 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -1021,10 +1036,10 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -1032,6 +1047,21 @@
     <border>
       <left style="thin">
         <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -1067,7 +1097,7 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -1098,21 +1128,6 @@
       </right>
       <top style="medium">
         <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -1215,7 +1230,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1318,17 +1333,17 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1339,112 +1354,136 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1471,25 +1510,25 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1498,13 +1537,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1513,7 +1552,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2909,10 +2948,10 @@
         <v>29</v>
       </c>
       <c r="F10" s="34">
-        <v>44980</v>
+        <v>45016</v>
       </c>
       <c r="G10" s="35">
-        <v>1.631944444444444</v>
+        <v>1.420138888888889</v>
       </c>
       <c r="H10" t="s" s="36">
         <v>30</v>
@@ -2952,16 +2991,16 @@
       <c r="E11" t="s" s="33">
         <v>35</v>
       </c>
-      <c r="F11" s="34">
-        <v>44980</v>
+      <c r="F11" s="43">
+        <v>45016</v>
       </c>
       <c r="G11" s="35">
-        <v>1.694444444444444</v>
-      </c>
-      <c r="H11" t="s" s="43">
+        <v>1.421527777777778</v>
+      </c>
+      <c r="H11" t="s" s="44">
         <v>36</v>
       </c>
-      <c r="I11" t="s" s="44">
+      <c r="I11" t="s" s="45">
         <v>37</v>
       </c>
       <c r="J11" t="s" s="38">
@@ -2996,16 +3035,16 @@
       <c r="E12" t="s" s="33">
         <v>39</v>
       </c>
-      <c r="F12" s="34">
-        <v>45006</v>
+      <c r="F12" s="43">
+        <v>45016</v>
       </c>
       <c r="G12" s="35">
-        <v>1.40625</v>
-      </c>
-      <c r="H12" t="s" s="45">
+        <v>1.422222222222222</v>
+      </c>
+      <c r="H12" t="s" s="46">
         <v>40</v>
       </c>
-      <c r="I12" t="s" s="44">
+      <c r="I12" t="s" s="47">
         <v>41</v>
       </c>
       <c r="J12" t="s" s="38">
@@ -3040,16 +3079,16 @@
       <c r="E13" t="s" s="33">
         <v>43</v>
       </c>
-      <c r="F13" s="34">
-        <v>44984</v>
-      </c>
-      <c r="G13" s="35">
-        <v>1.509722222222222</v>
-      </c>
-      <c r="H13" t="s" s="46">
+      <c r="F13" s="48">
+        <v>45015</v>
+      </c>
+      <c r="G13" s="49">
+        <v>1.420138888888889</v>
+      </c>
+      <c r="H13" t="s" s="50">
         <v>44</v>
       </c>
-      <c r="I13" t="s" s="47">
+      <c r="I13" t="s" s="51">
         <v>45</v>
       </c>
       <c r="J13" t="s" s="38">
@@ -3081,17 +3120,17 @@
       <c r="D14" t="s" s="32">
         <v>46</v>
       </c>
-      <c r="E14" t="s" s="48">
+      <c r="E14" t="s" s="52">
         <v>47</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
       <c r="J14" t="s" s="38">
         <v>48</v>
       </c>
-      <c r="K14" t="s" s="49">
+      <c r="K14" t="s" s="54">
         <v>49</v>
       </c>
       <c r="L14" s="40"/>
@@ -3119,38 +3158,38 @@
       <c r="D15" t="s" s="32">
         <v>51</v>
       </c>
-      <c r="E15" t="s" s="48">
+      <c r="E15" t="s" s="52">
         <v>52</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="53">
         <v>44987</v>
       </c>
-      <c r="G15" t="s" s="50">
+      <c r="G15" t="s" s="55">
         <v>53</v>
       </c>
-      <c r="H15" t="s" s="51">
+      <c r="H15" t="s" s="56">
         <v>54</v>
       </c>
-      <c r="I15" t="s" s="51">
+      <c r="I15" t="s" s="56">
         <v>55</v>
       </c>
       <c r="J15" t="s" s="38">
         <v>32</v>
       </c>
-      <c r="K15" s="52"/>
+      <c r="K15" s="57"/>
       <c r="L15" t="s" s="38">
         <v>32</v>
       </c>
       <c r="M15" t="s" s="38">
         <v>48</v>
       </c>
-      <c r="N15" t="s" s="49">
+      <c r="N15" t="s" s="54">
         <v>56</v>
       </c>
       <c r="O15" t="s" s="38">
         <v>32</v>
       </c>
-      <c r="P15" t="s" s="49">
+      <c r="P15" t="s" s="54">
         <v>57</v>
       </c>
       <c r="Q15" s="40"/>
@@ -3176,21 +3215,21 @@
       <c r="E16" t="s" s="33">
         <v>59</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="34">
         <v>44987</v>
       </c>
-      <c r="G16" t="s" s="51">
+      <c r="G16" t="s" s="56">
         <v>60</v>
       </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
       <c r="J16" s="40"/>
       <c r="K16" s="39"/>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
-      <c r="N16" s="52"/>
+      <c r="N16" s="57"/>
       <c r="O16" s="40"/>
-      <c r="P16" t="s" s="55">
+      <c r="P16" t="s" s="58">
         <v>61</v>
       </c>
       <c r="Q16" s="40"/>
@@ -3215,13 +3254,13 @@
       <c r="D17" t="s" s="32">
         <v>62</v>
       </c>
-      <c r="E17" t="s" s="56">
+      <c r="E17" t="s" s="59">
         <v>63</v>
       </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="58"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
       <c r="J17" t="s" s="38">
         <v>48</v>
       </c>
@@ -3256,10 +3295,10 @@
       <c r="E18" t="s" s="33">
         <v>66</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
       <c r="J18" t="s" s="38">
         <v>48</v>
       </c>
@@ -3268,7 +3307,7 @@
       </c>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
-      <c r="N18" s="59"/>
+      <c r="N18" s="62"/>
       <c r="O18" s="40"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="40"/>
@@ -3294,7 +3333,7 @@
       <c r="E19" t="s" s="33">
         <v>69</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="53">
         <v>44981</v>
       </c>
       <c r="G19" s="35">
@@ -3313,10 +3352,10 @@
       <c r="L19" t="s" s="38">
         <v>32</v>
       </c>
-      <c r="M19" t="s" s="60">
+      <c r="M19" t="s" s="63">
         <v>48</v>
       </c>
-      <c r="N19" t="s" s="37">
+      <c r="N19" t="s" s="64">
         <v>72</v>
       </c>
       <c r="O19" t="s" s="38">
@@ -3348,16 +3387,16 @@
       <c r="E20" t="s" s="33">
         <v>75</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="53">
         <v>44981</v>
       </c>
       <c r="G20" s="35">
         <v>1.6125</v>
       </c>
-      <c r="H20" t="s" s="46">
+      <c r="H20" t="s" s="65">
         <v>76</v>
       </c>
-      <c r="I20" t="s" s="47">
+      <c r="I20" t="s" s="66">
         <v>77</v>
       </c>
       <c r="J20" t="s" s="38">
@@ -3367,10 +3406,10 @@
       <c r="L20" t="s" s="38">
         <v>32</v>
       </c>
-      <c r="M20" t="s" s="60">
+      <c r="M20" t="s" s="63">
         <v>32</v>
       </c>
-      <c r="N20" t="s" s="47">
+      <c r="N20" t="s" s="67">
         <v>78</v>
       </c>
       <c r="O20" t="s" s="38">
@@ -3402,10 +3441,10 @@
       <c r="E21" t="s" s="33">
         <v>81</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
       <c r="J21" t="s" s="38">
         <v>48</v>
       </c>
@@ -3440,10 +3479,10 @@
       <c r="E22" t="s" s="33">
         <v>83</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
       <c r="J22" t="s" s="38">
         <v>48</v>
       </c>
@@ -3452,7 +3491,7 @@
       </c>
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
-      <c r="N22" s="59"/>
+      <c r="N22" s="62"/>
       <c r="O22" s="40"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="40"/>
@@ -3478,16 +3517,16 @@
       <c r="E23" t="s" s="33">
         <v>85</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="53">
         <v>44981</v>
       </c>
       <c r="G23" s="35">
         <v>1.665277777777778</v>
       </c>
-      <c r="H23" t="s" s="61">
+      <c r="H23" t="s" s="68">
         <v>86</v>
       </c>
-      <c r="I23" t="s" s="62">
+      <c r="I23" t="s" s="51">
         <v>87</v>
       </c>
       <c r="J23" t="s" s="38">
@@ -3497,10 +3536,10 @@
       <c r="L23" t="s" s="38">
         <v>32</v>
       </c>
-      <c r="M23" t="s" s="60">
+      <c r="M23" t="s" s="63">
         <v>32</v>
       </c>
-      <c r="N23" t="s" s="62">
+      <c r="N23" t="s" s="69">
         <v>88</v>
       </c>
       <c r="O23" t="s" s="38">
@@ -3532,10 +3571,10 @@
       <c r="E24" t="s" s="33">
         <v>91</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
       <c r="J24" t="s" s="38">
         <v>48</v>
       </c>
@@ -3570,10 +3609,10 @@
       <c r="E25" t="s" s="33">
         <v>94</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
       <c r="J25" t="s" s="38">
         <v>48</v>
       </c>
@@ -3582,7 +3621,7 @@
       </c>
       <c r="L25" s="40"/>
       <c r="M25" s="40"/>
-      <c r="N25" s="59"/>
+      <c r="N25" s="62"/>
       <c r="O25" s="40"/>
       <c r="P25" s="39"/>
       <c r="Q25" s="40"/>
@@ -3608,16 +3647,16 @@
       <c r="E26" t="s" s="33">
         <v>96</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="53">
         <v>44981</v>
       </c>
       <c r="G26" s="35">
         <v>1.613194444444444</v>
       </c>
-      <c r="H26" t="s" s="61">
+      <c r="H26" t="s" s="68">
         <v>97</v>
       </c>
-      <c r="I26" t="s" s="62">
+      <c r="I26" t="s" s="51">
         <v>98</v>
       </c>
       <c r="J26" t="s" s="38">
@@ -3627,10 +3666,10 @@
       <c r="L26" t="s" s="38">
         <v>32</v>
       </c>
-      <c r="M26" t="s" s="60">
+      <c r="M26" t="s" s="63">
         <v>32</v>
       </c>
-      <c r="N26" t="s" s="62">
+      <c r="N26" t="s" s="69">
         <v>99</v>
       </c>
       <c r="O26" t="s" s="38">
@@ -3662,10 +3701,10 @@
       <c r="E27" t="s" s="33">
         <v>102</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
       <c r="J27" t="s" s="38">
         <v>48</v>
       </c>
@@ -3674,7 +3713,7 @@
       </c>
       <c r="L27" s="40"/>
       <c r="M27" s="40"/>
-      <c r="N27" s="59"/>
+      <c r="N27" s="62"/>
       <c r="O27" s="40"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="40"/>
@@ -3700,7 +3739,7 @@
       <c r="E28" t="s" s="33">
         <v>105</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="53">
         <v>44981</v>
       </c>
       <c r="G28" s="35">
@@ -3719,10 +3758,10 @@
       <c r="L28" t="s" s="38">
         <v>32</v>
       </c>
-      <c r="M28" t="s" s="60">
+      <c r="M28" t="s" s="63">
         <v>32</v>
       </c>
-      <c r="N28" t="s" s="37">
+      <c r="N28" t="s" s="64">
         <v>108</v>
       </c>
       <c r="O28" t="s" s="38">
@@ -3754,16 +3793,16 @@
       <c r="E29" t="s" s="33">
         <v>111</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="53">
         <v>44981</v>
       </c>
       <c r="G29" s="35">
         <v>1.634027777777778</v>
       </c>
-      <c r="H29" t="s" s="43">
+      <c r="H29" t="s" s="44">
         <v>112</v>
       </c>
-      <c r="I29" t="s" s="44">
+      <c r="I29" t="s" s="45">
         <v>113</v>
       </c>
       <c r="J29" t="s" s="38">
@@ -3773,10 +3812,10 @@
       <c r="L29" t="s" s="38">
         <v>32</v>
       </c>
-      <c r="M29" t="s" s="60">
+      <c r="M29" t="s" s="63">
         <v>32</v>
       </c>
-      <c r="N29" t="s" s="44">
+      <c r="N29" t="s" s="70">
         <v>114</v>
       </c>
       <c r="O29" t="s" s="38">
@@ -3808,16 +3847,16 @@
       <c r="E30" t="s" s="33">
         <v>117</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="53">
         <v>44984</v>
       </c>
       <c r="G30" s="35">
         <v>1.517361111111111</v>
       </c>
-      <c r="H30" t="s" s="43">
+      <c r="H30" t="s" s="44">
         <v>118</v>
       </c>
-      <c r="I30" t="s" s="44">
+      <c r="I30" t="s" s="45">
         <v>119</v>
       </c>
       <c r="J30" t="s" s="38">
@@ -3827,10 +3866,10 @@
       <c r="L30" t="s" s="38">
         <v>32</v>
       </c>
-      <c r="M30" t="s" s="60">
+      <c r="M30" t="s" s="63">
         <v>32</v>
       </c>
-      <c r="N30" t="s" s="44">
+      <c r="N30" t="s" s="70">
         <v>120</v>
       </c>
       <c r="O30" t="s" s="38">
@@ -3862,16 +3901,16 @@
       <c r="E31" t="s" s="33">
         <v>123</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="53">
         <v>44984</v>
       </c>
       <c r="G31" s="35">
         <v>1.680555555555556</v>
       </c>
-      <c r="H31" t="s" s="46">
+      <c r="H31" t="s" s="65">
         <v>124</v>
       </c>
-      <c r="I31" t="s" s="44">
+      <c r="I31" t="s" s="45">
         <v>125</v>
       </c>
       <c r="J31" t="s" s="38">
@@ -3881,10 +3920,10 @@
       <c r="L31" t="s" s="38">
         <v>32</v>
       </c>
-      <c r="M31" t="s" s="60">
+      <c r="M31" t="s" s="63">
         <v>32</v>
       </c>
-      <c r="N31" t="s" s="44">
+      <c r="N31" t="s" s="70">
         <v>126</v>
       </c>
       <c r="O31" t="s" s="38">
@@ -3916,16 +3955,16 @@
       <c r="E32" t="s" s="33">
         <v>129</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="53">
         <v>44984</v>
       </c>
-      <c r="G32" s="63">
+      <c r="G32" s="71">
         <v>1.694444444444444</v>
       </c>
-      <c r="H32" t="s" s="64">
+      <c r="H32" t="s" s="72">
         <v>130</v>
       </c>
-      <c r="I32" t="s" s="44">
+      <c r="I32" t="s" s="45">
         <v>131</v>
       </c>
       <c r="J32" t="s" s="38">
@@ -3935,10 +3974,10 @@
       <c r="L32" t="s" s="38">
         <v>32</v>
       </c>
-      <c r="M32" t="s" s="60">
+      <c r="M32" t="s" s="63">
         <v>32</v>
       </c>
-      <c r="N32" t="s" s="44">
+      <c r="N32" t="s" s="70">
         <v>132</v>
       </c>
       <c r="O32" t="s" s="38">
@@ -3970,16 +4009,16 @@
       <c r="E33" t="s" s="33">
         <v>135</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="53">
         <v>44984</v>
       </c>
-      <c r="G33" s="63">
+      <c r="G33" s="71">
         <v>1.697916666666667</v>
       </c>
-      <c r="H33" t="s" s="65">
+      <c r="H33" t="s" s="73">
         <v>136</v>
       </c>
-      <c r="I33" t="s" s="44">
+      <c r="I33" t="s" s="45">
         <v>137</v>
       </c>
       <c r="J33" t="s" s="38">
@@ -3989,10 +4028,10 @@
       <c r="L33" t="s" s="38">
         <v>32</v>
       </c>
-      <c r="M33" t="s" s="60">
+      <c r="M33" t="s" s="63">
         <v>32</v>
       </c>
-      <c r="N33" t="s" s="44">
+      <c r="N33" t="s" s="70">
         <v>138</v>
       </c>
       <c r="O33" t="s" s="38">
@@ -4024,7 +4063,7 @@
       <c r="E34" t="s" s="33">
         <v>141</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="53">
         <v>44981</v>
       </c>
       <c r="G34" s="35">
@@ -4033,7 +4072,7 @@
       <c r="H34" t="s" s="36">
         <v>142</v>
       </c>
-      <c r="I34" t="s" s="44">
+      <c r="I34" t="s" s="45">
         <v>143</v>
       </c>
       <c r="J34" t="s" s="38">
@@ -4043,10 +4082,10 @@
       <c r="L34" t="s" s="38">
         <v>32</v>
       </c>
-      <c r="M34" t="s" s="60">
+      <c r="M34" t="s" s="63">
         <v>32</v>
       </c>
-      <c r="N34" t="s" s="44">
+      <c r="N34" t="s" s="70">
         <v>144</v>
       </c>
       <c r="O34" t="s" s="38">
@@ -4063,56 +4102,56 @@
       </c>
     </row>
     <row r="35" ht="222.05" customHeight="1">
-      <c r="A35" s="66">
+      <c r="A35" s="74">
         <v>93</v>
       </c>
-      <c r="B35" t="s" s="67">
+      <c r="B35" t="s" s="75">
         <v>26</v>
       </c>
-      <c r="C35" t="s" s="67">
+      <c r="C35" t="s" s="75">
         <v>27</v>
       </c>
-      <c r="D35" t="s" s="67">
+      <c r="D35" t="s" s="75">
         <v>146</v>
       </c>
-      <c r="E35" t="s" s="68">
+      <c r="E35" t="s" s="76">
         <v>147</v>
       </c>
-      <c r="F35" s="53">
+      <c r="F35" s="34">
         <v>44981</v>
       </c>
-      <c r="G35" s="69">
+      <c r="G35" s="77">
         <v>1.673611111111111</v>
       </c>
-      <c r="H35" t="s" s="70">
+      <c r="H35" t="s" s="78">
         <v>148</v>
       </c>
-      <c r="I35" t="s" s="71">
+      <c r="I35" t="s" s="47">
         <v>149</v>
       </c>
-      <c r="J35" t="s" s="72">
+      <c r="J35" t="s" s="79">
         <v>32</v>
       </c>
-      <c r="K35" s="59"/>
-      <c r="L35" t="s" s="72">
+      <c r="K35" s="62"/>
+      <c r="L35" t="s" s="79">
         <v>32</v>
       </c>
-      <c r="M35" t="s" s="73">
+      <c r="M35" t="s" s="80">
         <v>32</v>
       </c>
-      <c r="N35" t="s" s="71">
+      <c r="N35" t="s" s="81">
         <v>150</v>
       </c>
-      <c r="O35" t="s" s="72">
+      <c r="O35" t="s" s="79">
         <v>48</v>
       </c>
-      <c r="P35" t="s" s="72">
+      <c r="P35" t="s" s="79">
         <v>151</v>
       </c>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="75"/>
-      <c r="T35" t="s" s="76">
+      <c r="Q35" s="82"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="83"/>
+      <c r="T35" t="s" s="84">
         <v>50</v>
       </c>
     </row>
@@ -4122,21 +4161,21 @@
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="78"/>
-      <c r="Q36" s="78"/>
-      <c r="R36" s="80"/>
-      <c r="S36" s="81"/>
-      <c r="T36" s="78"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="86"/>
+      <c r="Q36" s="86"/>
+      <c r="R36" s="88"/>
+      <c r="S36" s="89"/>
+      <c r="T36" s="86"/>
     </row>
     <row r="37" ht="13.55" customHeight="1">
       <c r="A37" s="3"/>
@@ -22742,123 +22781,123 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="82" customWidth="1"/>
-    <col min="2" max="2" width="23.8516" style="82" customWidth="1"/>
-    <col min="3" max="3" width="18.8516" style="82" customWidth="1"/>
-    <col min="4" max="4" width="58.5" style="82" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="82" customWidth="1"/>
-    <col min="6" max="16384" width="14.5" style="82" customWidth="1"/>
+    <col min="1" max="1" width="16" style="90" customWidth="1"/>
+    <col min="2" max="2" width="23.8516" style="90" customWidth="1"/>
+    <col min="3" max="3" width="18.8516" style="90" customWidth="1"/>
+    <col min="4" max="4" width="58.5" style="90" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="90" customWidth="1"/>
+    <col min="6" max="16384" width="14.5" style="90" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="83">
+      <c r="A1" t="s" s="91">
         <v>8</v>
       </c>
-      <c r="B1" t="s" s="84">
+      <c r="B1" t="s" s="92">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="84">
+      <c r="C1" t="s" s="92">
         <v>152</v>
       </c>
-      <c r="D1" t="s" s="85">
+      <c r="D1" t="s" s="93">
         <v>153</v>
       </c>
-      <c r="E1" s="86"/>
+      <c r="E1" s="94"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="87">
+      <c r="A2" t="s" s="95">
         <v>154</v>
       </c>
-      <c r="B2" t="s" s="88">
+      <c r="B2" t="s" s="96">
         <v>155</v>
       </c>
-      <c r="C2" t="s" s="89">
+      <c r="C2" t="s" s="97">
         <v>156</v>
       </c>
-      <c r="D2" t="s" s="90">
+      <c r="D2" t="s" s="98">
         <v>157</v>
       </c>
-      <c r="E2" s="86"/>
+      <c r="E2" s="94"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="91">
+      <c r="A3" t="s" s="99">
         <v>158</v>
       </c>
-      <c r="B3" t="s" s="92">
+      <c r="B3" t="s" s="100">
         <v>155</v>
       </c>
-      <c r="C3" t="s" s="93">
+      <c r="C3" t="s" s="101">
         <v>159</v>
       </c>
-      <c r="D3" t="s" s="94">
+      <c r="D3" t="s" s="102">
         <v>160</v>
       </c>
-      <c r="E3" s="86"/>
+      <c r="E3" s="94"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="91">
+      <c r="A4" t="s" s="99">
         <v>27</v>
       </c>
-      <c r="B4" t="s" s="92">
+      <c r="B4" t="s" s="100">
         <v>155</v>
       </c>
-      <c r="C4" t="s" s="93">
+      <c r="C4" t="s" s="101">
         <v>161</v>
       </c>
-      <c r="D4" t="s" s="95">
+      <c r="D4" t="s" s="103">
         <v>162</v>
       </c>
-      <c r="E4" s="86"/>
+      <c r="E4" s="94"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" t="s" s="91">
+      <c r="A5" t="s" s="99">
         <v>163</v>
       </c>
-      <c r="B5" t="s" s="92">
+      <c r="B5" t="s" s="100">
         <v>155</v>
       </c>
-      <c r="C5" t="s" s="93">
+      <c r="C5" t="s" s="101">
         <v>164</v>
       </c>
-      <c r="D5" t="s" s="94">
+      <c r="D5" t="s" s="102">
         <v>165</v>
       </c>
-      <c r="E5" s="86"/>
+      <c r="E5" s="94"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" t="s" s="91">
+      <c r="A6" t="s" s="99">
         <v>166</v>
       </c>
-      <c r="B6" t="s" s="92">
+      <c r="B6" t="s" s="100">
         <v>155</v>
       </c>
-      <c r="C6" t="s" s="93">
+      <c r="C6" t="s" s="101">
         <v>167</v>
       </c>
-      <c r="D6" t="s" s="95">
+      <c r="D6" t="s" s="103">
         <v>168</v>
       </c>
-      <c r="E6" s="86"/>
+      <c r="E6" s="94"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" t="s" s="96">
+      <c r="A7" t="s" s="104">
         <v>169</v>
       </c>
-      <c r="B7" t="s" s="97">
+      <c r="B7" t="s" s="105">
         <v>155</v>
       </c>
-      <c r="C7" t="s" s="98">
+      <c r="C7" t="s" s="106">
         <v>170</v>
       </c>
-      <c r="D7" t="s" s="95">
+      <c r="D7" t="s" s="103">
         <v>171</v>
       </c>
-      <c r="E7" s="86"/>
+      <c r="E7" s="94"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="99"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
       <c r="D8" s="20"/>
       <c r="E8" s="3"/>
     </row>

--- a/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-RIS/V.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-RIS/V.2.0/report-checklist.xlsx
@@ -129,10 +129,10 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>af3ef739c0d91a8e</t>
+    <t>211fc56f3d91adfb</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.94acb62a90ecf2b5970963e2b6ccecc38052be0abcb8d84f43ef841412b8d449.acaa092191^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.94acb62a90ecf2b5970963e2b6ccecc38052be0abcb8d84f43ef841412b8d449.466167137e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -149,10 +149,10 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>85574c797e25b6b2</t>
+    <t>931a4fc68422de9c</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.e1419bb55c3a28ea90fec660fd9c487856dba78a3be8356b7ac8788f8cefc5e6.f0714a35aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.e1419bb55c3a28ea90fec660fd9c487856dba78a3be8356b7ac8788f8cefc5e6.8612a0334a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT3</t>
@@ -163,10 +163,10 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>f927f9294ef77277</t>
+    <t>7441dfa621d70e6e</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.7e3a302338821f54720cdcaba959a2d45529ae4de12f5dbf2ab807a409540e19.52cba350b4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.7e3a302338821f54720cdcaba959a2d45529ae4de12f5dbf2ab807a409540e19.f5954f7165^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT4</t>
@@ -177,10 +177,10 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2964dcfd215876d2 </t>
+    <t>2187e5ff744f75ea</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.674a5c9463de6e1664dc42fbb6927dc235b0571732d102dbc042ffd2b2257e42.193395f6b5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.674a5c9463de6e1664dc42fbb6927dc235b0571732d102dbc042ffd2b2257e42.a519f57962^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
@@ -944,21 +944,6 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="medium">
@@ -1036,10 +1021,10 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="8"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -1062,6 +1047,21 @@
     <border>
       <left style="thin">
         <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -1333,16 +1333,16 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1354,76 +1354,76 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1438,16 +1438,16 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="60" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1456,10 +1456,10 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="60" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1468,16 +1468,16 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1510,7 +1510,7 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1519,10 +1519,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1546,10 +1546,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2948,10 +2948,10 @@
         <v>29</v>
       </c>
       <c r="F10" s="34">
-        <v>45016</v>
+        <v>45030</v>
       </c>
       <c r="G10" s="35">
-        <v>1.420138888888889</v>
+        <v>1.742361111111111</v>
       </c>
       <c r="H10" t="s" s="36">
         <v>30</v>
@@ -2991,16 +2991,16 @@
       <c r="E11" t="s" s="33">
         <v>35</v>
       </c>
-      <c r="F11" s="43">
-        <v>45016</v>
+      <c r="F11" s="34">
+        <v>45030</v>
       </c>
       <c r="G11" s="35">
-        <v>1.421527777777778</v>
-      </c>
-      <c r="H11" t="s" s="44">
+        <v>1.743055555555556</v>
+      </c>
+      <c r="H11" t="s" s="43">
         <v>36</v>
       </c>
-      <c r="I11" t="s" s="45">
+      <c r="I11" t="s" s="44">
         <v>37</v>
       </c>
       <c r="J11" t="s" s="38">
@@ -3035,16 +3035,16 @@
       <c r="E12" t="s" s="33">
         <v>39</v>
       </c>
-      <c r="F12" s="43">
-        <v>45016</v>
+      <c r="F12" s="34">
+        <v>45030</v>
       </c>
       <c r="G12" s="35">
-        <v>1.422222222222222</v>
-      </c>
-      <c r="H12" t="s" s="46">
+        <v>1.74375</v>
+      </c>
+      <c r="H12" t="s" s="45">
         <v>40</v>
       </c>
-      <c r="I12" t="s" s="47">
+      <c r="I12" t="s" s="46">
         <v>41</v>
       </c>
       <c r="J12" t="s" s="38">
@@ -3079,16 +3079,16 @@
       <c r="E13" t="s" s="33">
         <v>43</v>
       </c>
-      <c r="F13" s="48">
-        <v>45015</v>
-      </c>
-      <c r="G13" s="49">
-        <v>1.420138888888889</v>
-      </c>
-      <c r="H13" t="s" s="50">
+      <c r="F13" s="47">
+        <v>45030</v>
+      </c>
+      <c r="G13" s="48">
+        <v>1.744444444444444</v>
+      </c>
+      <c r="H13" t="s" s="49">
         <v>44</v>
       </c>
-      <c r="I13" t="s" s="51">
+      <c r="I13" t="s" s="50">
         <v>45</v>
       </c>
       <c r="J13" t="s" s="38">
@@ -3120,17 +3120,17 @@
       <c r="D14" t="s" s="32">
         <v>46</v>
       </c>
-      <c r="E14" t="s" s="52">
+      <c r="E14" t="s" s="51">
         <v>47</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
       <c r="J14" t="s" s="38">
         <v>48</v>
       </c>
-      <c r="K14" t="s" s="54">
+      <c r="K14" t="s" s="53">
         <v>49</v>
       </c>
       <c r="L14" s="40"/>
@@ -3158,38 +3158,38 @@
       <c r="D15" t="s" s="32">
         <v>51</v>
       </c>
-      <c r="E15" t="s" s="52">
+      <c r="E15" t="s" s="51">
         <v>52</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="34">
         <v>44987</v>
       </c>
-      <c r="G15" t="s" s="55">
+      <c r="G15" t="s" s="54">
         <v>53</v>
       </c>
-      <c r="H15" t="s" s="56">
+      <c r="H15" t="s" s="55">
         <v>54</v>
       </c>
-      <c r="I15" t="s" s="56">
+      <c r="I15" t="s" s="55">
         <v>55</v>
       </c>
       <c r="J15" t="s" s="38">
         <v>32</v>
       </c>
-      <c r="K15" s="57"/>
+      <c r="K15" s="56"/>
       <c r="L15" t="s" s="38">
         <v>32</v>
       </c>
       <c r="M15" t="s" s="38">
         <v>48</v>
       </c>
-      <c r="N15" t="s" s="54">
+      <c r="N15" t="s" s="53">
         <v>56</v>
       </c>
       <c r="O15" t="s" s="38">
         <v>32</v>
       </c>
-      <c r="P15" t="s" s="54">
+      <c r="P15" t="s" s="53">
         <v>57</v>
       </c>
       <c r="Q15" s="40"/>
@@ -3215,19 +3215,19 @@
       <c r="E16" t="s" s="33">
         <v>59</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="47">
         <v>44987</v>
       </c>
-      <c r="G16" t="s" s="56">
+      <c r="G16" t="s" s="55">
         <v>60</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
       <c r="J16" s="40"/>
       <c r="K16" s="39"/>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
-      <c r="N16" s="57"/>
+      <c r="N16" s="56"/>
       <c r="O16" s="40"/>
       <c r="P16" t="s" s="58">
         <v>61</v>
@@ -3295,10 +3295,10 @@
       <c r="E18" t="s" s="33">
         <v>66</v>
       </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="J18" t="s" s="38">
         <v>48</v>
       </c>
@@ -3333,7 +3333,7 @@
       <c r="E19" t="s" s="33">
         <v>69</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="34">
         <v>44981</v>
       </c>
       <c r="G19" s="35">
@@ -3387,7 +3387,7 @@
       <c r="E20" t="s" s="33">
         <v>75</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="34">
         <v>44981</v>
       </c>
       <c r="G20" s="35">
@@ -3441,10 +3441,10 @@
       <c r="E21" t="s" s="33">
         <v>81</v>
       </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
       <c r="J21" t="s" s="38">
         <v>48</v>
       </c>
@@ -3479,10 +3479,10 @@
       <c r="E22" t="s" s="33">
         <v>83</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
       <c r="J22" t="s" s="38">
         <v>48</v>
       </c>
@@ -3517,7 +3517,7 @@
       <c r="E23" t="s" s="33">
         <v>85</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F23" s="34">
         <v>44981</v>
       </c>
       <c r="G23" s="35">
@@ -3526,7 +3526,7 @@
       <c r="H23" t="s" s="68">
         <v>86</v>
       </c>
-      <c r="I23" t="s" s="51">
+      <c r="I23" t="s" s="50">
         <v>87</v>
       </c>
       <c r="J23" t="s" s="38">
@@ -3571,10 +3571,10 @@
       <c r="E24" t="s" s="33">
         <v>91</v>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
       <c r="J24" t="s" s="38">
         <v>48</v>
       </c>
@@ -3609,10 +3609,10 @@
       <c r="E25" t="s" s="33">
         <v>94</v>
       </c>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
       <c r="J25" t="s" s="38">
         <v>48</v>
       </c>
@@ -3647,7 +3647,7 @@
       <c r="E26" t="s" s="33">
         <v>96</v>
       </c>
-      <c r="F26" s="53">
+      <c r="F26" s="34">
         <v>44981</v>
       </c>
       <c r="G26" s="35">
@@ -3656,7 +3656,7 @@
       <c r="H26" t="s" s="68">
         <v>97</v>
       </c>
-      <c r="I26" t="s" s="51">
+      <c r="I26" t="s" s="50">
         <v>98</v>
       </c>
       <c r="J26" t="s" s="38">
@@ -3701,10 +3701,10 @@
       <c r="E27" t="s" s="33">
         <v>102</v>
       </c>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
       <c r="J27" t="s" s="38">
         <v>48</v>
       </c>
@@ -3739,7 +3739,7 @@
       <c r="E28" t="s" s="33">
         <v>105</v>
       </c>
-      <c r="F28" s="53">
+      <c r="F28" s="34">
         <v>44981</v>
       </c>
       <c r="G28" s="35">
@@ -3793,16 +3793,16 @@
       <c r="E29" t="s" s="33">
         <v>111</v>
       </c>
-      <c r="F29" s="53">
+      <c r="F29" s="34">
         <v>44981</v>
       </c>
       <c r="G29" s="35">
         <v>1.634027777777778</v>
       </c>
-      <c r="H29" t="s" s="44">
+      <c r="H29" t="s" s="43">
         <v>112</v>
       </c>
-      <c r="I29" t="s" s="45">
+      <c r="I29" t="s" s="44">
         <v>113</v>
       </c>
       <c r="J29" t="s" s="38">
@@ -3847,16 +3847,16 @@
       <c r="E30" t="s" s="33">
         <v>117</v>
       </c>
-      <c r="F30" s="53">
+      <c r="F30" s="34">
         <v>44984</v>
       </c>
       <c r="G30" s="35">
         <v>1.517361111111111</v>
       </c>
-      <c r="H30" t="s" s="44">
+      <c r="H30" t="s" s="43">
         <v>118</v>
       </c>
-      <c r="I30" t="s" s="45">
+      <c r="I30" t="s" s="44">
         <v>119</v>
       </c>
       <c r="J30" t="s" s="38">
@@ -3901,7 +3901,7 @@
       <c r="E31" t="s" s="33">
         <v>123</v>
       </c>
-      <c r="F31" s="53">
+      <c r="F31" s="34">
         <v>44984</v>
       </c>
       <c r="G31" s="35">
@@ -3910,7 +3910,7 @@
       <c r="H31" t="s" s="65">
         <v>124</v>
       </c>
-      <c r="I31" t="s" s="45">
+      <c r="I31" t="s" s="44">
         <v>125</v>
       </c>
       <c r="J31" t="s" s="38">
@@ -3955,7 +3955,7 @@
       <c r="E32" t="s" s="33">
         <v>129</v>
       </c>
-      <c r="F32" s="53">
+      <c r="F32" s="34">
         <v>44984</v>
       </c>
       <c r="G32" s="71">
@@ -3964,7 +3964,7 @@
       <c r="H32" t="s" s="72">
         <v>130</v>
       </c>
-      <c r="I32" t="s" s="45">
+      <c r="I32" t="s" s="44">
         <v>131</v>
       </c>
       <c r="J32" t="s" s="38">
@@ -4009,7 +4009,7 @@
       <c r="E33" t="s" s="33">
         <v>135</v>
       </c>
-      <c r="F33" s="53">
+      <c r="F33" s="34">
         <v>44984</v>
       </c>
       <c r="G33" s="71">
@@ -4018,7 +4018,7 @@
       <c r="H33" t="s" s="73">
         <v>136</v>
       </c>
-      <c r="I33" t="s" s="45">
+      <c r="I33" t="s" s="44">
         <v>137</v>
       </c>
       <c r="J33" t="s" s="38">
@@ -4063,7 +4063,7 @@
       <c r="E34" t="s" s="33">
         <v>141</v>
       </c>
-      <c r="F34" s="53">
+      <c r="F34" s="34">
         <v>44981</v>
       </c>
       <c r="G34" s="35">
@@ -4072,7 +4072,7 @@
       <c r="H34" t="s" s="36">
         <v>142</v>
       </c>
-      <c r="I34" t="s" s="45">
+      <c r="I34" t="s" s="44">
         <v>143</v>
       </c>
       <c r="J34" t="s" s="38">
@@ -4117,7 +4117,7 @@
       <c r="E35" t="s" s="76">
         <v>147</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="47">
         <v>44981</v>
       </c>
       <c r="G35" s="77">
@@ -4126,7 +4126,7 @@
       <c r="H35" t="s" s="78">
         <v>148</v>
       </c>
-      <c r="I35" t="s" s="47">
+      <c r="I35" t="s" s="46">
         <v>149</v>
       </c>
       <c r="J35" t="s" s="79">

--- a/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-RIS/V.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-RIS/V.2.0/report-checklist.xlsx
@@ -129,10 +129,10 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>211fc56f3d91adfb</t>
+    <t>6796e42e492b1d90</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.94acb62a90ecf2b5970963e2b6ccecc38052be0abcb8d84f43ef841412b8d449.466167137e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.94acb62a90ecf2b5970963e2b6ccecc38052be0abcb8d84f43ef841412b8d449.82c68babf6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -177,10 +177,10 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2187e5ff744f75ea</t>
+    <t>c4b5aecafad85263</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.674a5c9463de6e1664dc42fbb6927dc235b0571732d102dbc042ffd2b2257e42.a519f57962^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.674a5c9463de6e1664dc42fbb6927dc235b0571732d102dbc042ffd2b2257e42.548228583e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
@@ -2948,10 +2948,10 @@
         <v>29</v>
       </c>
       <c r="F10" s="34">
-        <v>45030</v>
+        <v>45035</v>
       </c>
       <c r="G10" s="35">
-        <v>1.742361111111111</v>
+        <v>1.408333333333333</v>
       </c>
       <c r="H10" t="s" s="36">
         <v>30</v>
@@ -3080,10 +3080,10 @@
         <v>43</v>
       </c>
       <c r="F13" s="47">
-        <v>45030</v>
+        <v>45035</v>
       </c>
       <c r="G13" s="48">
-        <v>1.744444444444444</v>
+        <v>1.410416666666667</v>
       </c>
       <c r="H13" t="s" s="49">
         <v>44</v>

--- a/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-RIS/V.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-RIS/V.2.0/report-checklist.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -315,7 +315,7 @@
     <t>JWT payload: Person id presente nel JWT differente dal codice fiscale del paziente previsto sul CDA</t>
   </si>
   <si>
-    <t>L’applicativo risponde con un codice di errore e il messaggio “Campo token JWT non valido” seguito dal motivo dell’errore. Il referto non viene prodotto</t>
+    <t>L’applicativo risponde con un codice di errore e il messaggio “Campo token JWT non valido” seguito dal motivo dell’errore. Il referto non viene prodotto e viene aggiunto in una coda di errori di validazione dalla quale è possibile dedurre il tipo di errore e apportare le dovute correzioni, al termine delle quali il documento viene nuovamente inviato per la validazione.</t>
   </si>
   <si>
     <t>VALIDAZIONE_RAD_TIMEOUT</t>
@@ -328,7 +328,7 @@
     <t>12:51:00</t>
   </si>
   <si>
-    <t>In caso di timeout con il gateway il processo clinico prosegue, il referto viene prodotto</t>
+    <t>In caso di timeout con il gateway il processo clinico prosegue, il referto viene prodotto. Il documento viene aggiunto in una coda dalla quale l’operatore può effettuare nuovamente l’invio una volta che il gateway torna disponibile.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT5_KO</t>
@@ -369,7 +369,8 @@
     <t xml:space="preserve">{    "traceID": "c7ad4aaf2a43c501",    "spanID": "c7ad4aaf2a43c501",    "type": "/msg/semantic",    "title": "Errore semantico.",    "detail": "[ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']",    "status": 422,    "instance": "/validation/error",    "workflowInstanceId": "2.16.840.1.113883.2.9.2.150.4.4.62682deb7c339b3839eab00187a96d0b24f8d5e910645072ea2ab26e364a04f6.82c2c3ee6a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"} </t>
   </si>
   <si>
-    <t>ALERT: L'elemento 'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25']</t>
+    <t>ALERT: L'elemento 'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con ‘2.16.840.1.113883.5.25']
+Il confidentialityCode viene scelto, all’interno della maschera di inserimento, tra un elenco di valori predefiniti e codificati secondo normativa. Nell’ipotetico caso in cui sia presente un codice errato, può essere effettuata una richiesta di supporto attraverso la quale un operatore provvederà a correggere i codici opportuni.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT8_KO</t>
@@ -388,7 +389,8 @@
     <t xml:space="preserve">{    "traceID": "b0400ffb71202df6",    "spanID": "b0400ffb71202df6",    "type": "/msg/semantic",    "title": "Errore semantico.",    "detail": "[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'.   ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']",    "status": 422,    "instance": "/validation/error",    "workflowInstanceId": "2.16.840.1.113883.2.9.2.150.4.4.99c9ef2694de88e719a05750bb939f08ce3e43b3baed93264b1b8db0beaf6047.4c8c3cc656^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"} </t>
   </si>
   <si>
-    <t>ALERT: Comune di residenza obbligatorio</t>
+    <t>ALERT: Comune di residenza obbligatorio.
+Il comune di residenza viene scelto, all’interno della maschera di inserimento, tra un elenco di valori preinseriti. Nell’ipotetico caso in cui il comune non sia presente, può essere effettuata una richiesta di supporto attraverso la quale un operatore provvederà ad inserire i dati opportuni</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT9_KO</t>
@@ -424,7 +426,8 @@
     <t xml:space="preserve">{    "traceID": "a1197bf6216ee291",    "spanID": "a1197bf6216ee291",    "type": "/msg/semantic",    "title": "Errore semantico.",    "detail": "[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']",    "status": 422,    "instance": "/validation/error",    "workflowInstanceId": "2.16.840.1.113883.2.9.2.150.4.4.541c1b46474e7fb57ed425e169e4cd16f7b0df160a335c89494a94b845aa7ec9.c4a05a046d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"} </t>
   </si>
   <si>
-    <t>ALERT: L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ]</t>
+    <t>ALERT: Identificativo del documento non presente.
+L’identificativo del documento viene scelto, all’interno della maschera di inserimento, tra un elenco di valori preinseriti. Nell’ipotetico caso in cui l’identificativo non sia scelto, l’operatore di accettazione potrà provvedere alla correzione</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT12_KO</t>
@@ -461,8 +464,8 @@
     <t xml:space="preserve">{    "traceID": "b7f0be798faa31cb",    "spanID": "b7f0be798faa31cb",    "type": "/msg/syntax",    "title": "Errore di sintassi.",    "detail": "ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.",    "status": 400,    "instance": "/validation/error",    "workflowInstanceId": "2.16.840.1.113883.2.9.2.150.4.4.7a4230bc94ad9cd70ccfaf82e139952a4fbe4cc7f1087657bca00d8ba25d8bde.ea59950704^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"} </t>
   </si>
   <si>
-    <t>ALERT: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type ‘cs'
-ALERT: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'</t>
+    <t>ALERT: Codice esame non presente.
+Il codice dell’esame viene inserito, all’interno della maschera di inserimento, in un campo libero. Nell’ipotetico caso in cui il campo non sia inserito, l’operatore di accettazione potrà provvedere alla correzione.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT15_KO</t>
@@ -493,7 +496,8 @@
     <t xml:space="preserve">{    "traceID": "ed8e6220b433a9e3",    "spanID": "ed8e6220b433a9e3",    "type": "/msg/semantic",    "title": "Errore semantico.",    "detail": "[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[ERRORE-b13| Sezione Precedenti Esami Eseguiti: La section deve contenere l'elemento 'text'.],[W004 | Sezione Precedenti Esami Eseguiti: l'entry/observation/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']",    "status": 422,    "instance": "/validation/error",    "workflowInstanceId": "2.16.840.1.113883.2.9.2.150.4.4.051c3c516354f27272a5473d7506776bccbc637846bec3b7223df1bd6ead2aba.9b90d0207e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"} </t>
   </si>
   <si>
-    <t>ALERT: Sezione Precedenti Esami Eseguiti: La section deve contenere l'elemento 'text'.</t>
+    <t>ALERT: Elemento text non presente nella sezione precedenti esami eseguiti
+Nell’ipotetico caso in cui il valore text non si valorizzato, può essere effettuata una richiesta di supporto attraverso la quale un operatore provvederà a correggere dati.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT17_KO</t>
@@ -513,7 +517,8 @@
     <t xml:space="preserve">{    "traceID": "3c88ccda77c5da4a",    "spanID": "3c88ccda77c5da4a",    "type": "/msg/semantic",    "title": "Errore semantico.",    "detail": "[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[ERRORE-b6| Il codice '' non è corretto. La sezione deve essere valorizzata con uno dei seguenti codici:\n\t\t\t121181   Sezione DICOM Object Catalog\n\t\t\t18785-6  Sezione Quesito Diagnostico\n\t\t\t11329-0\t Sezione Storia Clinica\n\t\t\t55114-3\t Sezione Precedenti Esami Eseguiti\n\t\t\t55111-9\t Sezione Esame Eseguito\n\t\t\t18782-3\t Sezione Referto\n\t\t\t55110-1\t Sezione Conclusioni\n\t\t\t55107-7\t Sezione Informazioni Aggiuntive\n\t\t\t55109-3\t Sezione Complicanze\n\t\t\t18783-1  Sezione Suggerimenti per il medico prescrittore\n\t\t\t]",    "status": 422,    "instance": "/validation/error",    "workflowInstanceId": "2.16.840.1.113883.2.9.2.150.4.4.cc927a525db1b9d5c5f4ce7383889bc9c39ba3b9f29d88752ad3b876cc7bb9c0.6aec598cba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"} </t>
   </si>
   <si>
-    <t>ALERT: Il codice '' non è corretto</t>
+    <t>ALERT: Codice non corretto nella sezione DICOM object catalog
+Nell’ipotetico caso in cui il codice non si valorizzato, può essere effettuata una richiesta di supporto attraverso la quale un operatore provvederà a correggere dati.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT18_KO</t>
@@ -533,7 +538,9 @@
     <t xml:space="preserve">{    "traceID": "8355d418706074b3",    "spanID": "8355d418706074b3",    "type": "/msg/semantic",    "title": "Errore semantico.",    "detail": "[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[ERRORE-b22| Sezione Storia Clinica: L'elemento entry/observation/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato.]",    "status": 422,    "instance": "/validation/error",    "workflowInstanceId": "2.16.840.1.113883.2.9.2.150.4.4.886cb0cca63b6b2178aae12937f43536d7a80f4754b6ee76139e564cb555186f.f18ac8515d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"} </t>
   </si>
   <si>
-    <t>Alert: Data insorgenza obbligatoria patologia mancate</t>
+    <t xml:space="preserve">Alert: Data insorgenza obbligatoria patologia mancate
+Nell’ipotetico caso in cui il campo non si valorizzato, può essere effettuata una richiesta di supporto attraverso la quale un operatore provvederà a correggere dati.
+</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT19_KO</t>
@@ -552,7 +559,8 @@
     <t xml:space="preserve">{    "traceID": "a4ea4c4cac81d7fb",    "spanID": "a4ea4c4cac81d7fb",    "type": "/msg/semantic",    "title": "Errore semantico.",    "detail": "[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[ERRORE-b26| Sezione Storia Clinica: La entry/organizer deve avere un elemento subject/relatedSubject il quale deve contenere l'elemento 'code'. ]",    "status": 422,    "instance": "/validation/error",    "workflowInstanceId": "2.16.840.1.113883.2.9.2.150.4.4.f5c4aadb76963b09d30a949f7e08fd6239f73de9f12945cae739228a57f9bbf0.ddfee4aa55^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"} </t>
   </si>
   <si>
-    <t>ALERT: Grado di parentela mancante in dettaglio anamnesi familiare</t>
+    <t>ALERT: Grado di parentela mancante in dettaglio anamnesi familiare
+Nell’ipotetico caso in cui il codice non si valorizzato, può essere effettuata una richiesta di supporto attraverso la quale un operatore provvederà a correggere dati.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT20_KO</t>
@@ -571,7 +579,9 @@
     <t xml:space="preserve">{    "traceID": "9280979dfdc1cb0b",    "spanID": "9280979dfdc1cb0b",    "type": "/msg/semantic",    "title": "Errore semantico.",    "detail": "[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[ERRORE-b53| Sotto sezione Allergie: I'elemento entry/act/entryRelationship/observation/effectiveTime deve avere valorizzato l'elemento 'low'.]",    "status": 422,    "instance": "/validation/error",    "workflowInstanceId": "2.16.840.1.113883.2.9.2.150.4.4.72b3f91ea7968d95c9ca5ec11b2226d60073b64de204a535a30b9cbad877a8c6.1379913081^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"} </t>
   </si>
   <si>
-    <t>ALERT: Sotto sezione Allergie: I'elemento entry/act/entryRelationship/observation/effectiveTime deve avere valorizzato l'elemento ‘low'.</t>
+    <t xml:space="preserve">Alert: Data insorgenza allergia o intolleranza mancate
+Nell’ipotetico caso in cui il campo non si valorizzato, può essere effettuata una richiesta di supporto attraverso la quale un operatore provvederà a correggere dati.
+</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT21_KO</t>
@@ -591,7 +601,9 @@
     <t xml:space="preserve">{    "traceID": "348cfd9c3585df91",    "spanID": "348cfd9c3585df91",    "type": "/msg/semantic",    "title": "Errore semantico.",    "detail": "[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'],[ERRORE-b57| Sotto sezione Allergie: L'elemento entryRelationship/observation (Descrizione Agente) deve avere almeno un elemento 'participant' che dettaglia l'agente scatenante.],[ERRORE-b58| Sotto sezione Allergie: L'elemento participant/participantRole/playingEntity deve avere l'attributo code/@codeSystem valorizzato come segue:\n\t\t\t- '2.16.840.1.113883.6.73' codifica \"WHO ATC\"\n\t\t\t- '2.16.840.1.113883.2.9.6.1.5' codifica \"AIC\"\n\t\t\t- '2.16.840.1.113883.2.9.77.22.11.2' value set \"AllergenNoDrugs\" (- per le allergie non a farmaci –)\n\t\t\t]",    "status": 422,    "instance": "/validation/error",    "workflowInstanceId": "2.16.840.1.113883.2.9.2.150.4.4.1e5f5cb5032872b93b7c2cc6c94be590af160199a980d244bb88c391f3bb2f65.28c1d1d9e3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"} </t>
   </si>
   <si>
-    <t>ALERT: Sotto sezione Allergie: L'elemento participant/participantRole/playingEntity deve avere l'attributo code/@codeSystem valorizzato come segue:\n\t\t\t- '2.16.840.1.113883.6.73' codifica \"WHO ATC\"\n\t\t\t- '2.16.840.1.113883.2.9.6.1.5' codifica \"AIC\"\n\t\t\t- '2.16.840.1.113883.2.9.77.22.11.2' value set \"AllergenNoDrugs\" (- per le allergie non a farmaci –)\n\t\t\t</t>
+    <t>ALERT: Agente che ha scatenato l’allergia non presente.
+L’agente viene scelto, all’interno della maschera di inserimento, tra un elenco di valori preinseriti. Nell’ipotetico caso in cui l’identificativo non sia scelto, il medico refertante potrà provvedere alla correzione. 
+Se l’agente non fosse presente nella lista, può essere effettuata una richiesta di supporto attraverso la quale un operatore provvederà a correggere dati.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT22_KO</t>
@@ -611,7 +623,8 @@
     <t xml:space="preserve">{    "traceID": "51b2bc11dbbb68d2",    "spanID": "51b2bc11dbbb68d2",    "type": "/msg/vocabulary",    "title": "Errore vocabolario.",    "detail": "Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 441..01]",    "status": 400,    "instance": "/validation/error",    "workflowInstanceId": "2.16.840.1.113883.2.9.2.150.4.4.6c376ce1a9cb7fcbb9041ffcc62992752222ceb5a9ce11ba6445f9fc5b69ba15.070a5bf485^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"} </t>
   </si>
   <si>
-    <t>ALERT: Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 441..01]</t>
+    <t>ALERT: Diagnosi errata.
+La diagnosi viene scelta, all’interno della maschera di inserimento, tra un elenco di valori preinseriti. Nell’ipotetico caso in cui l’identificativo fosse errato, può essere effettuata una richiesta di supporto attraverso la quale un operatore provvederà a correggere dati.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT23_KO</t>
@@ -629,9 +642,6 @@
   </si>
   <si>
     <t xml:space="preserve">{    "traceID": "0cf7123153777b10",    "spanID": "0cf7123153777b10",    "type": "/msg/semantic",    "title": "Errore semantico.",    "detail": "[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']",    "status": 422,    "instance": "/validation/error",    "workflowInstanceId": "2.16.840.1.113883.2.9.2.150.4.4.8a4db2cc2dff07133d4c25027b5da1d2d8285acb0d0913b8df4e15c9fe064f06.4ac9dc81d7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"} </t>
-  </si>
-  <si>
-    <t>ALERT: L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' </t>
   </si>
   <si>
     <t>ID TEST CASE OK</t>
@@ -1402,10 +1412,10 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1434,6 +1444,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1466,9 +1479,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -3145,7 +3155,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" ht="105.55" customHeight="1">
+    <row r="15" ht="160" customHeight="1">
       <c r="A15" s="31">
         <v>39</v>
       </c>
@@ -3189,7 +3199,7 @@
       <c r="O15" t="s" s="38">
         <v>32</v>
       </c>
-      <c r="P15" t="s" s="53">
+      <c r="P15" t="s" s="57">
         <v>57</v>
       </c>
       <c r="Q15" s="40"/>
@@ -3199,7 +3209,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" ht="43" customHeight="1">
+    <row r="16" ht="108" customHeight="1">
       <c r="A16" s="31">
         <v>47</v>
       </c>
@@ -3221,15 +3231,15 @@
       <c r="G16" t="s" s="55">
         <v>60</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="40"/>
       <c r="K16" s="39"/>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
       <c r="N16" s="56"/>
       <c r="O16" s="40"/>
-      <c r="P16" t="s" s="58">
+      <c r="P16" t="s" s="53">
         <v>61</v>
       </c>
       <c r="Q16" s="40"/>
@@ -3271,7 +3281,7 @@
       <c r="M17" s="40"/>
       <c r="N17" s="39"/>
       <c r="O17" s="40"/>
-      <c r="P17" s="39"/>
+      <c r="P17" s="56"/>
       <c r="Q17" s="40"/>
       <c r="R17" s="38"/>
       <c r="S17" s="41"/>
@@ -3317,7 +3327,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" ht="222.55" customHeight="1">
+    <row r="19" ht="235.55" customHeight="1">
       <c r="A19" s="31">
         <v>77</v>
       </c>
@@ -3415,7 +3425,7 @@
       <c r="O20" t="s" s="38">
         <v>48</v>
       </c>
-      <c r="P20" t="s" s="38">
+      <c r="P20" t="s" s="68">
         <v>79</v>
       </c>
       <c r="Q20" s="40"/>
@@ -3455,7 +3465,7 @@
       <c r="M21" s="40"/>
       <c r="N21" s="39"/>
       <c r="O21" s="40"/>
-      <c r="P21" s="39"/>
+      <c r="P21" s="56"/>
       <c r="Q21" s="40"/>
       <c r="R21" s="38"/>
       <c r="S21" s="41"/>
@@ -3523,7 +3533,7 @@
       <c r="G23" s="35">
         <v>1.665277777777778</v>
       </c>
-      <c r="H23" t="s" s="68">
+      <c r="H23" t="s" s="69">
         <v>86</v>
       </c>
       <c r="I23" t="s" s="50">
@@ -3539,13 +3549,13 @@
       <c r="M23" t="s" s="63">
         <v>32</v>
       </c>
-      <c r="N23" t="s" s="69">
+      <c r="N23" t="s" s="70">
         <v>88</v>
       </c>
       <c r="O23" t="s" s="38">
         <v>48</v>
       </c>
-      <c r="P23" t="s" s="38">
+      <c r="P23" t="s" s="68">
         <v>89</v>
       </c>
       <c r="Q23" s="40"/>
@@ -3585,7 +3595,7 @@
       <c r="M24" s="40"/>
       <c r="N24" s="39"/>
       <c r="O24" s="40"/>
-      <c r="P24" s="39"/>
+      <c r="P24" s="56"/>
       <c r="Q24" s="40"/>
       <c r="R24" s="38"/>
       <c r="S24" s="41"/>
@@ -3653,7 +3663,7 @@
       <c r="G26" s="35">
         <v>1.613194444444444</v>
       </c>
-      <c r="H26" t="s" s="68">
+      <c r="H26" t="s" s="69">
         <v>97</v>
       </c>
       <c r="I26" t="s" s="50">
@@ -3669,13 +3679,13 @@
       <c r="M26" t="s" s="63">
         <v>32</v>
       </c>
-      <c r="N26" t="s" s="69">
+      <c r="N26" t="s" s="70">
         <v>99</v>
       </c>
       <c r="O26" t="s" s="38">
         <v>48</v>
       </c>
-      <c r="P26" t="s" s="38">
+      <c r="P26" t="s" s="68">
         <v>100</v>
       </c>
       <c r="Q26" s="40"/>
@@ -3715,7 +3725,7 @@
       <c r="M27" s="40"/>
       <c r="N27" s="62"/>
       <c r="O27" s="40"/>
-      <c r="P27" s="39"/>
+      <c r="P27" s="56"/>
       <c r="Q27" s="40"/>
       <c r="R27" s="38"/>
       <c r="S27" s="41"/>
@@ -3815,7 +3825,7 @@
       <c r="M29" t="s" s="63">
         <v>32</v>
       </c>
-      <c r="N29" t="s" s="70">
+      <c r="N29" t="s" s="71">
         <v>114</v>
       </c>
       <c r="O29" t="s" s="38">
@@ -3869,7 +3879,7 @@
       <c r="M30" t="s" s="63">
         <v>32</v>
       </c>
-      <c r="N30" t="s" s="70">
+      <c r="N30" t="s" s="71">
         <v>120</v>
       </c>
       <c r="O30" t="s" s="38">
@@ -3923,7 +3933,7 @@
       <c r="M31" t="s" s="63">
         <v>32</v>
       </c>
-      <c r="N31" t="s" s="70">
+      <c r="N31" t="s" s="71">
         <v>126</v>
       </c>
       <c r="O31" t="s" s="38">
@@ -3958,10 +3968,10 @@
       <c r="F32" s="34">
         <v>44984</v>
       </c>
-      <c r="G32" s="71">
+      <c r="G32" s="72">
         <v>1.694444444444444</v>
       </c>
-      <c r="H32" t="s" s="72">
+      <c r="H32" t="s" s="73">
         <v>130</v>
       </c>
       <c r="I32" t="s" s="44">
@@ -3977,7 +3987,7 @@
       <c r="M32" t="s" s="63">
         <v>32</v>
       </c>
-      <c r="N32" t="s" s="70">
+      <c r="N32" t="s" s="71">
         <v>132</v>
       </c>
       <c r="O32" t="s" s="38">
@@ -4012,10 +4022,10 @@
       <c r="F33" s="34">
         <v>44984</v>
       </c>
-      <c r="G33" s="71">
+      <c r="G33" s="72">
         <v>1.697916666666667</v>
       </c>
-      <c r="H33" t="s" s="73">
+      <c r="H33" t="s" s="74">
         <v>136</v>
       </c>
       <c r="I33" t="s" s="44">
@@ -4031,7 +4041,7 @@
       <c r="M33" t="s" s="63">
         <v>32</v>
       </c>
-      <c r="N33" t="s" s="70">
+      <c r="N33" t="s" s="71">
         <v>138</v>
       </c>
       <c r="O33" t="s" s="38">
@@ -4047,7 +4057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" ht="131.55" customHeight="1">
+    <row r="34" ht="144.55" customHeight="1">
       <c r="A34" s="31">
         <v>92</v>
       </c>
@@ -4085,7 +4095,7 @@
       <c r="M34" t="s" s="63">
         <v>32</v>
       </c>
-      <c r="N34" t="s" s="70">
+      <c r="N34" t="s" s="71">
         <v>144</v>
       </c>
       <c r="O34" t="s" s="38">
@@ -4102,38 +4112,38 @@
       </c>
     </row>
     <row r="35" ht="222.05" customHeight="1">
-      <c r="A35" s="74">
+      <c r="A35" s="75">
         <v>93</v>
       </c>
-      <c r="B35" t="s" s="75">
+      <c r="B35" t="s" s="76">
         <v>26</v>
       </c>
-      <c r="C35" t="s" s="75">
+      <c r="C35" t="s" s="76">
         <v>27</v>
       </c>
-      <c r="D35" t="s" s="75">
+      <c r="D35" t="s" s="76">
         <v>146</v>
       </c>
-      <c r="E35" t="s" s="76">
+      <c r="E35" t="s" s="77">
         <v>147</v>
       </c>
       <c r="F35" s="47">
         <v>44981</v>
       </c>
-      <c r="G35" s="77">
+      <c r="G35" s="78">
         <v>1.673611111111111</v>
       </c>
-      <c r="H35" t="s" s="78">
+      <c r="H35" t="s" s="79">
         <v>148</v>
       </c>
       <c r="I35" t="s" s="46">
         <v>149</v>
       </c>
-      <c r="J35" t="s" s="79">
+      <c r="J35" t="s" s="68">
         <v>32</v>
       </c>
       <c r="K35" s="62"/>
-      <c r="L35" t="s" s="79">
+      <c r="L35" t="s" s="68">
         <v>32</v>
       </c>
       <c r="M35" t="s" s="80">
@@ -4142,14 +4152,14 @@
       <c r="N35" t="s" s="81">
         <v>150</v>
       </c>
-      <c r="O35" t="s" s="79">
+      <c r="O35" t="s" s="68">
         <v>48</v>
       </c>
-      <c r="P35" t="s" s="79">
-        <v>151</v>
+      <c r="P35" t="s" s="68">
+        <v>89</v>
       </c>
       <c r="Q35" s="82"/>
-      <c r="R35" s="79"/>
+      <c r="R35" s="68"/>
       <c r="S35" s="83"/>
       <c r="T35" t="s" s="84">
         <v>50</v>
@@ -22797,40 +22807,40 @@
         <v>7</v>
       </c>
       <c r="C1" t="s" s="92">
+        <v>151</v>
+      </c>
+      <c r="D1" t="s" s="93">
         <v>152</v>
-      </c>
-      <c r="D1" t="s" s="93">
-        <v>153</v>
       </c>
       <c r="E1" s="94"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="95">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s" s="96">
         <v>154</v>
       </c>
-      <c r="B2" t="s" s="96">
+      <c r="C2" t="s" s="97">
         <v>155</v>
       </c>
-      <c r="C2" t="s" s="97">
+      <c r="D2" t="s" s="98">
         <v>156</v>
-      </c>
-      <c r="D2" t="s" s="98">
-        <v>157</v>
       </c>
       <c r="E2" s="94"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s" s="99">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s" s="100">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s" s="101">
         <v>158</v>
       </c>
-      <c r="B3" t="s" s="100">
-        <v>155</v>
-      </c>
-      <c r="C3" t="s" s="101">
+      <c r="D3" t="s" s="102">
         <v>159</v>
-      </c>
-      <c r="D3" t="s" s="102">
-        <v>160</v>
       </c>
       <c r="E3" s="94"/>
     </row>
@@ -22839,58 +22849,58 @@
         <v>27</v>
       </c>
       <c r="B4" t="s" s="100">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s" s="101">
+        <v>160</v>
+      </c>
+      <c r="D4" t="s" s="103">
         <v>161</v>
-      </c>
-      <c r="D4" t="s" s="103">
-        <v>162</v>
       </c>
       <c r="E4" s="94"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" t="s" s="99">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s" s="100">
+        <v>154</v>
+      </c>
+      <c r="C5" t="s" s="101">
         <v>163</v>
       </c>
-      <c r="B5" t="s" s="100">
-        <v>155</v>
-      </c>
-      <c r="C5" t="s" s="101">
+      <c r="D5" t="s" s="102">
         <v>164</v>
-      </c>
-      <c r="D5" t="s" s="102">
-        <v>165</v>
       </c>
       <c r="E5" s="94"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" t="s" s="99">
+        <v>165</v>
+      </c>
+      <c r="B6" t="s" s="100">
+        <v>154</v>
+      </c>
+      <c r="C6" t="s" s="101">
         <v>166</v>
       </c>
-      <c r="B6" t="s" s="100">
-        <v>155</v>
-      </c>
-      <c r="C6" t="s" s="101">
+      <c r="D6" t="s" s="103">
         <v>167</v>
-      </c>
-      <c r="D6" t="s" s="103">
-        <v>168</v>
       </c>
       <c r="E6" s="94"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" t="s" s="104">
+        <v>168</v>
+      </c>
+      <c r="B7" t="s" s="105">
+        <v>154</v>
+      </c>
+      <c r="C7" t="s" s="106">
         <v>169</v>
       </c>
-      <c r="B7" t="s" s="105">
-        <v>155</v>
-      </c>
-      <c r="C7" t="s" s="106">
+      <c r="D7" t="s" s="103">
         <v>170</v>
-      </c>
-      <c r="D7" t="s" s="103">
-        <v>171</v>
       </c>
       <c r="E7" s="94"/>
     </row>
